--- a/TestCase.xlsx
+++ b/TestCase.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HP\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HP\Desktop\Folder for upload\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B20F3CC-F9F0-4966-A74F-E18A26E93BD5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4912A7C4-6D91-43AF-AAB5-71F00CABFCEE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2405,6 +2405,60 @@
     <xf numFmtId="0" fontId="43" fillId="10" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="13" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="13" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2412,8 +2466,6 @@
     <xf numFmtId="0" fontId="13" fillId="10" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2435,66 +2487,15 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="25" fillId="13" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="13" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="16" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2505,6 +2506,11 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="16" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="33" fillId="18" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2526,14 +2532,8 @@
     <xf numFmtId="0" fontId="32" fillId="28" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="28" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="37" fillId="8" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -3086,7 +3086,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="89" zoomScaleNormal="89" workbookViewId="0">
       <pane ySplit="7" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C1" sqref="C1"/>
+      <selection pane="bottomLeft" activeCell="G1" sqref="G1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
@@ -3109,10 +3109,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:29" ht="29.25" customHeight="1">
-      <c r="A1" s="255" t="s">
+      <c r="A1" s="275" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="251"/>
+      <c r="B1" s="273"/>
       <c r="C1" s="241" t="s">
         <v>96</v>
       </c>
@@ -3120,22 +3120,22 @@
         <v>1</v>
       </c>
       <c r="E1" s="242">
-        <v>45391</v>
+        <v>45421</v>
       </c>
       <c r="F1" s="2" t="s">
         <v>2</v>
       </c>
       <c r="G1" s="242">
-        <v>45452</v>
+        <v>45482</v>
       </c>
       <c r="H1" s="3"/>
       <c r="I1" s="3"/>
       <c r="J1" s="3"/>
       <c r="K1" s="4"/>
-      <c r="L1" s="256" t="s">
+      <c r="L1" s="276" t="s">
         <v>3</v>
       </c>
-      <c r="M1" s="257"/>
+      <c r="M1" s="277"/>
       <c r="N1" s="5"/>
       <c r="O1" s="5"/>
       <c r="P1" s="5"/>
@@ -3154,10 +3154,10 @@
       <c r="AC1" s="5"/>
     </row>
     <row r="2" spans="1:29" ht="32.25" customHeight="1">
-      <c r="A2" s="255" t="s">
+      <c r="A2" s="275" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="251"/>
+      <c r="B2" s="273"/>
       <c r="C2" s="6" t="s">
         <v>95</v>
       </c>
@@ -3165,7 +3165,7 @@
         <v>5</v>
       </c>
       <c r="E2" s="243">
-        <v>45421</v>
+        <v>45452</v>
       </c>
       <c r="F2" s="8" t="s">
         <v>6</v>
@@ -3200,10 +3200,10 @@
       <c r="AC2" s="5"/>
     </row>
     <row r="3" spans="1:29" ht="33" customHeight="1">
-      <c r="A3" s="255" t="s">
+      <c r="A3" s="275" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="251"/>
+      <c r="B3" s="273"/>
       <c r="C3" s="6"/>
       <c r="D3" s="7" t="s">
         <v>9</v>
@@ -3244,10 +3244,10 @@
       <c r="AC3" s="5"/>
     </row>
     <row r="4" spans="1:29" ht="34.5" customHeight="1">
-      <c r="A4" s="255" t="s">
+      <c r="A4" s="275" t="s">
         <v>13</v>
       </c>
-      <c r="B4" s="251"/>
+      <c r="B4" s="273"/>
       <c r="C4" s="6"/>
       <c r="D4" s="7" t="s">
         <v>14</v>
@@ -3288,15 +3288,15 @@
       <c r="AC4" s="5"/>
     </row>
     <row r="5" spans="1:29" ht="31.5" customHeight="1">
-      <c r="A5" s="250" t="s">
+      <c r="A5" s="272" t="s">
         <v>17</v>
       </c>
-      <c r="B5" s="251"/>
-      <c r="C5" s="258"/>
-      <c r="D5" s="259"/>
-      <c r="E5" s="259"/>
-      <c r="F5" s="259"/>
-      <c r="G5" s="251"/>
+      <c r="B5" s="273"/>
+      <c r="C5" s="278"/>
+      <c r="D5" s="279"/>
+      <c r="E5" s="279"/>
+      <c r="F5" s="279"/>
+      <c r="G5" s="273"/>
       <c r="H5" s="14"/>
       <c r="I5" s="14"/>
       <c r="J5" s="14"/>
@@ -3500,13 +3500,13 @@
       <c r="A10" s="43">
         <v>2</v>
       </c>
-      <c r="B10" s="260" t="s">
+      <c r="B10" s="280" t="s">
         <v>95</v>
       </c>
-      <c r="C10" s="252" t="s">
+      <c r="C10" s="274" t="s">
         <v>38</v>
       </c>
-      <c r="D10" s="260" t="s">
+      <c r="D10" s="280" t="s">
         <v>95</v>
       </c>
       <c r="E10" s="30" t="s">
@@ -3551,9 +3551,9 @@
       <c r="A11" s="43">
         <v>3</v>
       </c>
-      <c r="B11" s="253"/>
-      <c r="C11" s="253"/>
-      <c r="D11" s="253"/>
+      <c r="B11" s="262"/>
+      <c r="C11" s="262"/>
+      <c r="D11" s="262"/>
       <c r="E11" s="30" t="s">
         <v>42</v>
       </c>
@@ -3596,9 +3596,9 @@
       <c r="A12" s="43">
         <v>4</v>
       </c>
-      <c r="B12" s="253"/>
-      <c r="C12" s="253"/>
-      <c r="D12" s="253"/>
+      <c r="B12" s="262"/>
+      <c r="C12" s="262"/>
+      <c r="D12" s="262"/>
       <c r="E12" s="30" t="s">
         <v>101</v>
       </c>
@@ -3643,9 +3643,9 @@
       <c r="A13" s="43">
         <v>5</v>
       </c>
-      <c r="B13" s="253"/>
-      <c r="C13" s="253"/>
-      <c r="D13" s="253"/>
+      <c r="B13" s="262"/>
+      <c r="C13" s="262"/>
+      <c r="D13" s="262"/>
       <c r="E13" s="30" t="s">
         <v>105</v>
       </c>
@@ -3688,9 +3688,9 @@
       <c r="A14" s="43">
         <v>6</v>
       </c>
-      <c r="B14" s="253"/>
-      <c r="C14" s="253"/>
-      <c r="D14" s="253"/>
+      <c r="B14" s="262"/>
+      <c r="C14" s="262"/>
+      <c r="D14" s="262"/>
       <c r="E14" s="30" t="s">
         <v>108</v>
       </c>
@@ -3735,9 +3735,9 @@
       <c r="A15" s="43">
         <v>7</v>
       </c>
-      <c r="B15" s="253"/>
-      <c r="C15" s="253"/>
-      <c r="D15" s="253"/>
+      <c r="B15" s="262"/>
+      <c r="C15" s="262"/>
+      <c r="D15" s="262"/>
       <c r="E15" s="30" t="s">
         <v>111</v>
       </c>
@@ -3782,9 +3782,9 @@
       <c r="A16" s="43">
         <v>8</v>
       </c>
-      <c r="B16" s="253"/>
-      <c r="C16" s="253"/>
-      <c r="D16" s="253"/>
+      <c r="B16" s="262"/>
+      <c r="C16" s="262"/>
+      <c r="D16" s="262"/>
       <c r="E16" s="30"/>
       <c r="F16" s="30"/>
       <c r="G16" s="30"/>
@@ -3815,9 +3815,9 @@
       <c r="A17" s="43">
         <v>9</v>
       </c>
-      <c r="B17" s="253"/>
-      <c r="C17" s="254"/>
-      <c r="D17" s="253"/>
+      <c r="B17" s="262"/>
+      <c r="C17" s="263"/>
+      <c r="D17" s="262"/>
       <c r="E17" s="30"/>
       <c r="F17" s="30"/>
       <c r="G17" s="30"/>
@@ -3846,9 +3846,9 @@
     </row>
     <row r="18" spans="1:29" ht="16.5" customHeight="1" thickBot="1">
       <c r="A18" s="36"/>
-      <c r="B18" s="253"/>
+      <c r="B18" s="262"/>
       <c r="C18" s="51"/>
-      <c r="D18" s="253"/>
+      <c r="D18" s="262"/>
       <c r="E18" s="52"/>
       <c r="F18" s="52"/>
       <c r="G18" s="52"/>
@@ -3879,11 +3879,11 @@
       <c r="A19" s="58">
         <v>44</v>
       </c>
-      <c r="B19" s="253"/>
-      <c r="C19" s="260" t="s">
+      <c r="B19" s="262"/>
+      <c r="C19" s="280" t="s">
         <v>79</v>
       </c>
-      <c r="D19" s="253"/>
+      <c r="D19" s="262"/>
       <c r="E19" s="59" t="s">
         <v>114</v>
       </c>
@@ -3928,9 +3928,9 @@
       <c r="A20" s="58">
         <v>45</v>
       </c>
-      <c r="B20" s="253"/>
-      <c r="C20" s="253"/>
-      <c r="D20" s="253"/>
+      <c r="B20" s="262"/>
+      <c r="C20" s="262"/>
+      <c r="D20" s="262"/>
       <c r="E20" s="59" t="s">
         <v>117</v>
       </c>
@@ -3973,9 +3973,9 @@
       <c r="A21" s="58">
         <v>46</v>
       </c>
-      <c r="B21" s="253"/>
-      <c r="C21" s="253"/>
-      <c r="D21" s="253"/>
+      <c r="B21" s="262"/>
+      <c r="C21" s="262"/>
+      <c r="D21" s="262"/>
       <c r="E21" s="63" t="s">
         <v>121</v>
       </c>
@@ -4020,9 +4020,9 @@
       <c r="A22" s="58">
         <v>47</v>
       </c>
-      <c r="B22" s="253"/>
-      <c r="C22" s="254"/>
-      <c r="D22" s="253"/>
+      <c r="B22" s="262"/>
+      <c r="C22" s="263"/>
+      <c r="D22" s="262"/>
       <c r="E22" s="63" t="s">
         <v>125</v>
       </c>
@@ -4065,9 +4065,9 @@
     </row>
     <row r="23" spans="1:29" ht="28.5" customHeight="1" thickBot="1">
       <c r="A23" s="58"/>
-      <c r="B23" s="253"/>
+      <c r="B23" s="262"/>
       <c r="C23" s="244"/>
-      <c r="D23" s="253"/>
+      <c r="D23" s="262"/>
       <c r="E23" s="63" t="s">
         <v>128</v>
       </c>
@@ -4108,9 +4108,9 @@
     </row>
     <row r="24" spans="1:29" ht="28.5" customHeight="1" thickBot="1">
       <c r="A24" s="58"/>
-      <c r="B24" s="253"/>
+      <c r="B24" s="262"/>
       <c r="C24" s="244"/>
-      <c r="D24" s="253"/>
+      <c r="D24" s="262"/>
       <c r="E24" s="63" t="s">
         <v>130</v>
       </c>
@@ -4153,9 +4153,9 @@
     </row>
     <row r="25" spans="1:29" ht="28.5" customHeight="1" thickBot="1">
       <c r="A25" s="58"/>
-      <c r="B25" s="253"/>
+      <c r="B25" s="262"/>
       <c r="C25" s="244"/>
-      <c r="D25" s="253"/>
+      <c r="D25" s="262"/>
       <c r="E25" s="63" t="s">
         <v>133</v>
       </c>
@@ -4198,9 +4198,9 @@
     </row>
     <row r="26" spans="1:29" ht="28.5" customHeight="1" thickBot="1">
       <c r="A26" s="58"/>
-      <c r="B26" s="253"/>
+      <c r="B26" s="262"/>
       <c r="C26" s="244"/>
-      <c r="D26" s="253"/>
+      <c r="D26" s="262"/>
       <c r="E26" s="63" t="s">
         <v>136</v>
       </c>
@@ -4243,9 +4243,9 @@
     </row>
     <row r="27" spans="1:29" ht="28.5" customHeight="1" thickBot="1">
       <c r="A27" s="58"/>
-      <c r="B27" s="253"/>
+      <c r="B27" s="262"/>
       <c r="C27" s="244"/>
-      <c r="D27" s="253"/>
+      <c r="D27" s="262"/>
       <c r="E27" s="63" t="s">
         <v>140</v>
       </c>
@@ -4288,9 +4288,9 @@
     </row>
     <row r="28" spans="1:29" ht="28.5" customHeight="1" thickBot="1">
       <c r="A28" s="58"/>
-      <c r="B28" s="253"/>
+      <c r="B28" s="262"/>
       <c r="C28" s="244"/>
-      <c r="D28" s="253"/>
+      <c r="D28" s="262"/>
       <c r="E28" s="63" t="s">
         <v>142</v>
       </c>
@@ -4329,9 +4329,9 @@
     </row>
     <row r="29" spans="1:29" ht="28.5" customHeight="1" thickBot="1">
       <c r="A29" s="58"/>
-      <c r="B29" s="253"/>
+      <c r="B29" s="262"/>
       <c r="C29" s="244"/>
-      <c r="D29" s="253"/>
+      <c r="D29" s="262"/>
       <c r="E29" s="63"/>
       <c r="F29" s="59"/>
       <c r="G29" s="59"/>
@@ -4360,9 +4360,9 @@
     </row>
     <row r="30" spans="1:29" ht="28.5" customHeight="1" thickBot="1">
       <c r="A30" s="58"/>
-      <c r="B30" s="253"/>
+      <c r="B30" s="262"/>
       <c r="C30" s="244"/>
-      <c r="D30" s="253"/>
+      <c r="D30" s="262"/>
       <c r="E30" s="63"/>
       <c r="F30" s="59"/>
       <c r="G30" s="59"/>
@@ -4391,9 +4391,9 @@
     </row>
     <row r="31" spans="1:29" ht="28.5" customHeight="1" thickBot="1">
       <c r="A31" s="58"/>
-      <c r="B31" s="253"/>
+      <c r="B31" s="262"/>
       <c r="C31" s="244"/>
-      <c r="D31" s="253"/>
+      <c r="D31" s="262"/>
       <c r="E31" s="63"/>
       <c r="F31" s="59"/>
       <c r="G31" s="59"/>
@@ -4422,9 +4422,9 @@
     </row>
     <row r="32" spans="1:29" ht="28.5" customHeight="1" thickBot="1">
       <c r="A32" s="58"/>
-      <c r="B32" s="253"/>
+      <c r="B32" s="262"/>
       <c r="C32" s="244"/>
-      <c r="D32" s="253"/>
+      <c r="D32" s="262"/>
       <c r="E32" s="63"/>
       <c r="F32" s="59"/>
       <c r="G32" s="59"/>
@@ -4453,9 +4453,9 @@
     </row>
     <row r="33" spans="1:29" ht="15.75" customHeight="1" thickBot="1">
       <c r="A33" s="65"/>
-      <c r="B33" s="253"/>
+      <c r="B33" s="262"/>
       <c r="C33" s="38"/>
-      <c r="D33" s="253"/>
+      <c r="D33" s="262"/>
       <c r="E33" s="66"/>
       <c r="F33" s="67"/>
       <c r="G33" s="67"/>
@@ -4486,11 +4486,11 @@
       <c r="A34" s="58">
         <v>48</v>
       </c>
-      <c r="B34" s="253"/>
-      <c r="C34" s="260" t="s">
+      <c r="B34" s="262"/>
+      <c r="C34" s="280" t="s">
         <v>45</v>
       </c>
-      <c r="D34" s="253"/>
+      <c r="D34" s="262"/>
       <c r="E34" s="63"/>
       <c r="F34" s="59"/>
       <c r="G34" s="59"/>
@@ -4521,9 +4521,9 @@
       <c r="A35" s="58">
         <v>49</v>
       </c>
-      <c r="B35" s="253"/>
-      <c r="C35" s="253"/>
-      <c r="D35" s="253"/>
+      <c r="B35" s="262"/>
+      <c r="C35" s="262"/>
+      <c r="D35" s="262"/>
       <c r="E35" s="70"/>
       <c r="F35" s="59"/>
       <c r="G35" s="59"/>
@@ -4554,9 +4554,9 @@
       <c r="A36" s="58">
         <v>50</v>
       </c>
-      <c r="B36" s="253"/>
-      <c r="C36" s="254"/>
-      <c r="D36" s="254"/>
+      <c r="B36" s="262"/>
+      <c r="C36" s="263"/>
+      <c r="D36" s="263"/>
       <c r="E36" s="70"/>
       <c r="F36" s="59"/>
       <c r="G36" s="59"/>
@@ -4585,7 +4585,7 @@
     </row>
     <row r="37" spans="1:29" ht="15.75" customHeight="1">
       <c r="A37" s="58"/>
-      <c r="B37" s="253"/>
+      <c r="B37" s="262"/>
       <c r="C37" s="71"/>
       <c r="D37" s="72"/>
       <c r="E37" s="73"/>
@@ -4618,11 +4618,11 @@
       <c r="A38" s="58">
         <v>51</v>
       </c>
-      <c r="B38" s="253"/>
-      <c r="C38" s="261" t="s">
+      <c r="B38" s="262"/>
+      <c r="C38" s="281" t="s">
         <v>46</v>
       </c>
-      <c r="D38" s="261" t="s">
+      <c r="D38" s="281" t="s">
         <v>47</v>
       </c>
       <c r="E38" s="59"/>
@@ -4655,9 +4655,9 @@
       <c r="A39" s="58">
         <v>52</v>
       </c>
-      <c r="B39" s="253"/>
-      <c r="C39" s="253"/>
-      <c r="D39" s="253"/>
+      <c r="B39" s="262"/>
+      <c r="C39" s="262"/>
+      <c r="D39" s="262"/>
       <c r="E39" s="63"/>
       <c r="F39" s="59"/>
       <c r="G39" s="59"/>
@@ -4688,9 +4688,9 @@
       <c r="A40" s="58">
         <v>53</v>
       </c>
-      <c r="B40" s="253"/>
-      <c r="C40" s="253"/>
-      <c r="D40" s="253"/>
+      <c r="B40" s="262"/>
+      <c r="C40" s="262"/>
+      <c r="D40" s="262"/>
       <c r="E40" s="63"/>
       <c r="F40" s="59"/>
       <c r="G40" s="59"/>
@@ -4721,9 +4721,9 @@
       <c r="A41" s="58">
         <v>54</v>
       </c>
-      <c r="B41" s="253"/>
-      <c r="C41" s="253"/>
-      <c r="D41" s="253"/>
+      <c r="B41" s="262"/>
+      <c r="C41" s="262"/>
+      <c r="D41" s="262"/>
       <c r="E41" s="63"/>
       <c r="F41" s="59"/>
       <c r="G41" s="59"/>
@@ -4754,9 +4754,9 @@
       <c r="A42" s="58">
         <v>55</v>
       </c>
-      <c r="B42" s="253"/>
-      <c r="C42" s="253"/>
-      <c r="D42" s="253"/>
+      <c r="B42" s="262"/>
+      <c r="C42" s="262"/>
+      <c r="D42" s="262"/>
       <c r="E42" s="63"/>
       <c r="F42" s="59"/>
       <c r="G42" s="59"/>
@@ -4787,9 +4787,9 @@
       <c r="A43" s="58">
         <v>56</v>
       </c>
-      <c r="B43" s="253"/>
-      <c r="C43" s="253"/>
-      <c r="D43" s="253"/>
+      <c r="B43" s="262"/>
+      <c r="C43" s="262"/>
+      <c r="D43" s="262"/>
       <c r="E43" s="45"/>
       <c r="F43" s="60"/>
       <c r="G43" s="59"/>
@@ -4820,9 +4820,9 @@
       <c r="A44" s="58">
         <v>57</v>
       </c>
-      <c r="B44" s="253"/>
-      <c r="C44" s="253"/>
-      <c r="D44" s="253"/>
+      <c r="B44" s="262"/>
+      <c r="C44" s="262"/>
+      <c r="D44" s="262"/>
       <c r="E44" s="80"/>
       <c r="F44" s="59"/>
       <c r="G44" s="59"/>
@@ -4853,9 +4853,9 @@
       <c r="A45" s="58">
         <v>58</v>
       </c>
-      <c r="B45" s="253"/>
-      <c r="C45" s="253"/>
-      <c r="D45" s="253"/>
+      <c r="B45" s="262"/>
+      <c r="C45" s="262"/>
+      <c r="D45" s="262"/>
       <c r="E45" s="80"/>
       <c r="F45" s="59"/>
       <c r="G45" s="59"/>
@@ -4886,9 +4886,9 @@
       <c r="A46" s="58">
         <v>59</v>
       </c>
-      <c r="B46" s="253"/>
-      <c r="C46" s="253"/>
-      <c r="D46" s="253"/>
+      <c r="B46" s="262"/>
+      <c r="C46" s="262"/>
+      <c r="D46" s="262"/>
       <c r="E46" s="80"/>
       <c r="F46" s="59"/>
       <c r="G46" s="59"/>
@@ -4919,9 +4919,9 @@
       <c r="A47" s="58">
         <v>60</v>
       </c>
-      <c r="B47" s="253"/>
-      <c r="C47" s="253"/>
-      <c r="D47" s="253"/>
+      <c r="B47" s="262"/>
+      <c r="C47" s="262"/>
+      <c r="D47" s="262"/>
       <c r="E47" s="80"/>
       <c r="F47" s="59"/>
       <c r="G47" s="59"/>
@@ -4952,9 +4952,9 @@
       <c r="A48" s="58">
         <v>61</v>
       </c>
-      <c r="B48" s="253"/>
-      <c r="C48" s="253"/>
-      <c r="D48" s="253"/>
+      <c r="B48" s="262"/>
+      <c r="C48" s="262"/>
+      <c r="D48" s="262"/>
       <c r="E48" s="45"/>
       <c r="F48" s="59"/>
       <c r="G48" s="59"/>
@@ -4985,9 +4985,9 @@
       <c r="A49" s="58">
         <v>62</v>
       </c>
-      <c r="B49" s="253"/>
-      <c r="C49" s="254"/>
-      <c r="D49" s="254"/>
+      <c r="B49" s="262"/>
+      <c r="C49" s="263"/>
+      <c r="D49" s="263"/>
       <c r="E49" s="63"/>
       <c r="F49" s="59"/>
       <c r="G49" s="59"/>
@@ -5016,7 +5016,7 @@
     </row>
     <row r="50" spans="1:29" ht="15.75" customHeight="1">
       <c r="A50" s="65"/>
-      <c r="B50" s="253"/>
+      <c r="B50" s="262"/>
       <c r="C50" s="81"/>
       <c r="D50" s="82"/>
       <c r="E50" s="83"/>
@@ -5047,9 +5047,9 @@
     </row>
     <row r="51" spans="1:29" ht="30" customHeight="1">
       <c r="A51" s="58"/>
-      <c r="B51" s="253"/>
-      <c r="C51" s="262"/>
-      <c r="D51" s="263" t="s">
+      <c r="B51" s="262"/>
+      <c r="C51" s="282"/>
+      <c r="D51" s="283" t="s">
         <v>48</v>
       </c>
       <c r="E51" s="63"/>
@@ -5080,9 +5080,9 @@
     </row>
     <row r="52" spans="1:29" ht="28.5" customHeight="1">
       <c r="A52" s="58"/>
-      <c r="B52" s="253"/>
-      <c r="C52" s="253"/>
-      <c r="D52" s="253"/>
+      <c r="B52" s="262"/>
+      <c r="C52" s="262"/>
+      <c r="D52" s="262"/>
       <c r="E52" s="63"/>
       <c r="F52" s="59"/>
       <c r="G52" s="59"/>
@@ -5111,9 +5111,9 @@
     </row>
     <row r="53" spans="1:29" ht="26.25" customHeight="1">
       <c r="A53" s="58"/>
-      <c r="B53" s="253"/>
-      <c r="C53" s="253"/>
-      <c r="D53" s="253"/>
+      <c r="B53" s="262"/>
+      <c r="C53" s="262"/>
+      <c r="D53" s="262"/>
       <c r="E53" s="59"/>
       <c r="F53" s="84"/>
       <c r="G53" s="59"/>
@@ -5142,9 +5142,9 @@
     </row>
     <row r="54" spans="1:29" ht="30" customHeight="1">
       <c r="A54" s="58"/>
-      <c r="B54" s="253"/>
-      <c r="C54" s="253"/>
-      <c r="D54" s="254"/>
+      <c r="B54" s="262"/>
+      <c r="C54" s="262"/>
+      <c r="D54" s="263"/>
       <c r="E54" s="59"/>
       <c r="F54" s="59"/>
       <c r="G54" s="59"/>
@@ -5173,8 +5173,8 @@
     </row>
     <row r="55" spans="1:29" ht="15.75" customHeight="1">
       <c r="A55" s="58"/>
-      <c r="B55" s="253"/>
-      <c r="C55" s="254"/>
+      <c r="B55" s="262"/>
+      <c r="C55" s="263"/>
       <c r="D55" s="85"/>
       <c r="E55" s="86"/>
       <c r="F55" s="59"/>
@@ -5204,7 +5204,7 @@
     </row>
     <row r="56" spans="1:29" ht="15.75" customHeight="1">
       <c r="A56" s="87"/>
-      <c r="B56" s="253"/>
+      <c r="B56" s="262"/>
       <c r="C56" s="88"/>
       <c r="D56" s="85"/>
       <c r="E56" s="86"/>
@@ -5235,7 +5235,7 @@
     </row>
     <row r="57" spans="1:29" ht="15.75" customHeight="1">
       <c r="A57" s="87"/>
-      <c r="B57" s="253"/>
+      <c r="B57" s="262"/>
       <c r="C57" s="88"/>
       <c r="D57" s="85"/>
       <c r="E57" s="89"/>
@@ -5266,7 +5266,7 @@
     </row>
     <row r="58" spans="1:29" ht="15.75" customHeight="1">
       <c r="A58" s="87"/>
-      <c r="B58" s="253"/>
+      <c r="B58" s="262"/>
       <c r="C58" s="88"/>
       <c r="D58" s="85"/>
       <c r="E58" s="89"/>
@@ -5297,7 +5297,7 @@
     </row>
     <row r="59" spans="1:29" ht="15.75" customHeight="1">
       <c r="A59" s="87"/>
-      <c r="B59" s="253"/>
+      <c r="B59" s="262"/>
       <c r="C59" s="88"/>
       <c r="D59" s="85"/>
       <c r="E59" s="89"/>
@@ -5328,7 +5328,7 @@
     </row>
     <row r="60" spans="1:29" ht="15.75" customHeight="1">
       <c r="A60" s="87"/>
-      <c r="B60" s="253"/>
+      <c r="B60" s="262"/>
       <c r="C60" s="88"/>
       <c r="D60" s="85"/>
       <c r="E60" s="89"/>
@@ -5359,7 +5359,7 @@
     </row>
     <row r="61" spans="1:29" ht="15.75" customHeight="1">
       <c r="A61" s="87"/>
-      <c r="B61" s="253"/>
+      <c r="B61" s="262"/>
       <c r="C61" s="88"/>
       <c r="D61" s="90"/>
       <c r="E61" s="89"/>
@@ -5390,9 +5390,9 @@
     </row>
     <row r="62" spans="1:29" ht="15.75" customHeight="1">
       <c r="A62" s="87"/>
-      <c r="B62" s="253"/>
+      <c r="B62" s="262"/>
       <c r="C62" s="88"/>
-      <c r="D62" s="273"/>
+      <c r="D62" s="261"/>
       <c r="E62" s="89"/>
       <c r="F62" s="84"/>
       <c r="G62" s="59"/>
@@ -5421,9 +5421,9 @@
     </row>
     <row r="63" spans="1:29" ht="15.75" customHeight="1">
       <c r="A63" s="87"/>
-      <c r="B63" s="253"/>
+      <c r="B63" s="262"/>
       <c r="C63" s="88"/>
-      <c r="D63" s="253"/>
+      <c r="D63" s="262"/>
       <c r="E63" s="89"/>
       <c r="F63" s="59"/>
       <c r="G63" s="59"/>
@@ -5452,9 +5452,9 @@
     </row>
     <row r="64" spans="1:29" ht="15.75" customHeight="1">
       <c r="A64" s="87"/>
-      <c r="B64" s="253"/>
+      <c r="B64" s="262"/>
       <c r="C64" s="88"/>
-      <c r="D64" s="253"/>
+      <c r="D64" s="262"/>
       <c r="E64" s="91"/>
       <c r="F64" s="92"/>
       <c r="G64" s="59"/>
@@ -5483,9 +5483,9 @@
     </row>
     <row r="65" spans="1:29" ht="15.75" customHeight="1">
       <c r="A65" s="87"/>
-      <c r="B65" s="253"/>
+      <c r="B65" s="262"/>
       <c r="C65" s="88"/>
-      <c r="D65" s="253"/>
+      <c r="D65" s="262"/>
       <c r="E65" s="91"/>
       <c r="F65" s="92"/>
       <c r="G65" s="59"/>
@@ -5514,9 +5514,9 @@
     </row>
     <row r="66" spans="1:29" ht="15.75" customHeight="1">
       <c r="A66" s="87"/>
-      <c r="B66" s="253"/>
+      <c r="B66" s="262"/>
       <c r="C66" s="88"/>
-      <c r="D66" s="254"/>
+      <c r="D66" s="263"/>
       <c r="E66" s="91"/>
       <c r="F66" s="92"/>
       <c r="G66" s="59"/>
@@ -5545,7 +5545,7 @@
     </row>
     <row r="67" spans="1:29" ht="15.75" customHeight="1">
       <c r="A67" s="87"/>
-      <c r="B67" s="253"/>
+      <c r="B67" s="262"/>
       <c r="C67" s="88"/>
       <c r="D67" s="93"/>
       <c r="E67" s="94"/>
@@ -5576,9 +5576,9 @@
     </row>
     <row r="68" spans="1:29" ht="15.75" customHeight="1">
       <c r="A68" s="87"/>
-      <c r="B68" s="253"/>
+      <c r="B68" s="262"/>
       <c r="C68" s="88"/>
-      <c r="D68" s="273"/>
+      <c r="D68" s="261"/>
       <c r="E68" s="86"/>
       <c r="F68" s="59"/>
       <c r="G68" s="59"/>
@@ -5607,9 +5607,9 @@
     </row>
     <row r="69" spans="1:29" ht="15.75" customHeight="1">
       <c r="A69" s="87"/>
-      <c r="B69" s="253"/>
+      <c r="B69" s="262"/>
       <c r="C69" s="88"/>
-      <c r="D69" s="254"/>
+      <c r="D69" s="263"/>
       <c r="E69" s="86"/>
       <c r="F69" s="59"/>
       <c r="G69" s="59"/>
@@ -5638,7 +5638,7 @@
     </row>
     <row r="70" spans="1:29" ht="15.75" customHeight="1">
       <c r="A70" s="87"/>
-      <c r="B70" s="253"/>
+      <c r="B70" s="262"/>
       <c r="C70" s="88"/>
       <c r="D70" s="95"/>
       <c r="E70" s="89"/>
@@ -5669,9 +5669,9 @@
     </row>
     <row r="71" spans="1:29" ht="15.75" customHeight="1">
       <c r="A71" s="87"/>
-      <c r="B71" s="253"/>
+      <c r="B71" s="262"/>
       <c r="C71" s="88"/>
-      <c r="D71" s="274"/>
+      <c r="D71" s="264"/>
       <c r="E71" s="89"/>
       <c r="F71" s="59"/>
       <c r="G71" s="59"/>
@@ -5700,9 +5700,9 @@
     </row>
     <row r="72" spans="1:29" ht="15.75" customHeight="1">
       <c r="A72" s="87"/>
-      <c r="B72" s="253"/>
+      <c r="B72" s="262"/>
       <c r="C72" s="88"/>
-      <c r="D72" s="253"/>
+      <c r="D72" s="262"/>
       <c r="E72" s="89"/>
       <c r="F72" s="59"/>
       <c r="G72" s="59"/>
@@ -5731,9 +5731,9 @@
     </row>
     <row r="73" spans="1:29" ht="15.75" customHeight="1">
       <c r="A73" s="87"/>
-      <c r="B73" s="253"/>
+      <c r="B73" s="262"/>
       <c r="C73" s="88"/>
-      <c r="D73" s="253"/>
+      <c r="D73" s="262"/>
       <c r="E73" s="91"/>
       <c r="F73" s="92"/>
       <c r="G73" s="59"/>
@@ -5762,9 +5762,9 @@
     </row>
     <row r="74" spans="1:29" ht="15.75" customHeight="1">
       <c r="A74" s="87"/>
-      <c r="B74" s="253"/>
+      <c r="B74" s="262"/>
       <c r="C74" s="88"/>
-      <c r="D74" s="253"/>
+      <c r="D74" s="262"/>
       <c r="E74" s="86"/>
       <c r="F74" s="59"/>
       <c r="G74" s="59"/>
@@ -5793,9 +5793,9 @@
     </row>
     <row r="75" spans="1:29" ht="15.75" customHeight="1">
       <c r="A75" s="87"/>
-      <c r="B75" s="253"/>
+      <c r="B75" s="262"/>
       <c r="C75" s="88"/>
-      <c r="D75" s="253"/>
+      <c r="D75" s="262"/>
       <c r="E75" s="86"/>
       <c r="F75" s="59"/>
       <c r="G75" s="59"/>
@@ -5824,9 +5824,9 @@
     </row>
     <row r="76" spans="1:29" ht="15.75" customHeight="1">
       <c r="A76" s="87"/>
-      <c r="B76" s="253"/>
+      <c r="B76" s="262"/>
       <c r="C76" s="88"/>
-      <c r="D76" s="253"/>
+      <c r="D76" s="262"/>
       <c r="E76" s="89"/>
       <c r="F76" s="59"/>
       <c r="G76" s="59"/>
@@ -5855,9 +5855,9 @@
     </row>
     <row r="77" spans="1:29" ht="15.75" customHeight="1">
       <c r="A77" s="87"/>
-      <c r="B77" s="253"/>
+      <c r="B77" s="262"/>
       <c r="C77" s="88"/>
-      <c r="D77" s="253"/>
+      <c r="D77" s="262"/>
       <c r="E77" s="89"/>
       <c r="F77" s="59"/>
       <c r="G77" s="59"/>
@@ -5886,9 +5886,9 @@
     </row>
     <row r="78" spans="1:29" ht="15.75" customHeight="1">
       <c r="A78" s="87"/>
-      <c r="B78" s="253"/>
+      <c r="B78" s="262"/>
       <c r="C78" s="88"/>
-      <c r="D78" s="253"/>
+      <c r="D78" s="262"/>
       <c r="E78" s="89"/>
       <c r="F78" s="59"/>
       <c r="G78" s="59"/>
@@ -5917,9 +5917,9 @@
     </row>
     <row r="79" spans="1:29" ht="15.75" customHeight="1">
       <c r="A79" s="87"/>
-      <c r="B79" s="253"/>
+      <c r="B79" s="262"/>
       <c r="C79" s="88"/>
-      <c r="D79" s="253"/>
+      <c r="D79" s="262"/>
       <c r="E79" s="91"/>
       <c r="F79" s="92"/>
       <c r="G79" s="59"/>
@@ -5948,9 +5948,9 @@
     </row>
     <row r="80" spans="1:29" ht="15.75" customHeight="1">
       <c r="A80" s="87"/>
-      <c r="B80" s="253"/>
+      <c r="B80" s="262"/>
       <c r="C80" s="88"/>
-      <c r="D80" s="253"/>
+      <c r="D80" s="262"/>
       <c r="E80" s="94"/>
       <c r="F80" s="64"/>
       <c r="G80" s="64"/>
@@ -5979,9 +5979,9 @@
     </row>
     <row r="81" spans="1:29" ht="15.75" customHeight="1">
       <c r="A81" s="87"/>
-      <c r="B81" s="253"/>
+      <c r="B81" s="262"/>
       <c r="C81" s="88"/>
-      <c r="D81" s="254"/>
+      <c r="D81" s="263"/>
       <c r="E81" s="86"/>
       <c r="F81" s="59"/>
       <c r="G81" s="59"/>
@@ -6010,7 +6010,7 @@
     </row>
     <row r="82" spans="1:29" ht="15.75" customHeight="1">
       <c r="A82" s="87"/>
-      <c r="B82" s="253"/>
+      <c r="B82" s="262"/>
       <c r="C82" s="88"/>
       <c r="D82" s="95"/>
       <c r="E82" s="86"/>
@@ -6041,9 +6041,9 @@
     </row>
     <row r="83" spans="1:29" ht="15.75" customHeight="1">
       <c r="A83" s="87"/>
-      <c r="B83" s="253"/>
+      <c r="B83" s="262"/>
       <c r="C83" s="88"/>
-      <c r="D83" s="275"/>
+      <c r="D83" s="265"/>
       <c r="E83" s="89"/>
       <c r="F83" s="59"/>
       <c r="G83" s="59"/>
@@ -6072,9 +6072,9 @@
     </row>
     <row r="84" spans="1:29" ht="15.75" customHeight="1">
       <c r="A84" s="87"/>
-      <c r="B84" s="253"/>
+      <c r="B84" s="262"/>
       <c r="C84" s="88"/>
-      <c r="D84" s="276"/>
+      <c r="D84" s="257"/>
       <c r="E84" s="89"/>
       <c r="F84" s="59"/>
       <c r="G84" s="59"/>
@@ -6103,9 +6103,9 @@
     </row>
     <row r="85" spans="1:29" ht="15.75" customHeight="1">
       <c r="A85" s="87"/>
-      <c r="B85" s="253"/>
+      <c r="B85" s="262"/>
       <c r="C85" s="88"/>
-      <c r="D85" s="276"/>
+      <c r="D85" s="257"/>
       <c r="E85" s="89"/>
       <c r="F85" s="59"/>
       <c r="G85" s="59"/>
@@ -6134,9 +6134,9 @@
     </row>
     <row r="86" spans="1:29" ht="15.75" customHeight="1">
       <c r="A86" s="87"/>
-      <c r="B86" s="253"/>
+      <c r="B86" s="262"/>
       <c r="C86" s="88"/>
-      <c r="D86" s="276"/>
+      <c r="D86" s="257"/>
       <c r="E86" s="91"/>
       <c r="F86" s="92"/>
       <c r="G86" s="59"/>
@@ -6165,9 +6165,9 @@
     </row>
     <row r="87" spans="1:29" ht="15.75" customHeight="1">
       <c r="A87" s="97"/>
-      <c r="B87" s="253"/>
+      <c r="B87" s="262"/>
       <c r="C87" s="98"/>
-      <c r="D87" s="276"/>
+      <c r="D87" s="257"/>
       <c r="E87" s="99"/>
       <c r="F87" s="100"/>
       <c r="G87" s="100"/>
@@ -6196,9 +6196,9 @@
     </row>
     <row r="88" spans="1:29" ht="15.75" customHeight="1">
       <c r="A88" s="103"/>
-      <c r="B88" s="253"/>
+      <c r="B88" s="262"/>
       <c r="C88" s="98"/>
-      <c r="D88" s="276"/>
+      <c r="D88" s="257"/>
       <c r="E88" s="104"/>
       <c r="F88" s="105"/>
       <c r="G88" s="106"/>
@@ -6227,9 +6227,9 @@
     </row>
     <row r="89" spans="1:29" ht="15.75" customHeight="1">
       <c r="A89" s="103"/>
-      <c r="B89" s="253"/>
+      <c r="B89" s="262"/>
       <c r="C89" s="98"/>
-      <c r="D89" s="276"/>
+      <c r="D89" s="257"/>
       <c r="E89" s="110"/>
       <c r="F89" s="111"/>
       <c r="G89" s="111"/>
@@ -6258,9 +6258,9 @@
     </row>
     <row r="90" spans="1:29" ht="15.75" customHeight="1">
       <c r="A90" s="103"/>
-      <c r="B90" s="253"/>
+      <c r="B90" s="262"/>
       <c r="C90" s="98"/>
-      <c r="D90" s="276"/>
+      <c r="D90" s="257"/>
       <c r="E90" s="110"/>
       <c r="F90" s="111"/>
       <c r="G90" s="111"/>
@@ -6289,9 +6289,9 @@
     </row>
     <row r="91" spans="1:29" ht="15.75" customHeight="1">
       <c r="A91" s="103"/>
-      <c r="B91" s="253"/>
+      <c r="B91" s="262"/>
       <c r="C91" s="98"/>
-      <c r="D91" s="276"/>
+      <c r="D91" s="257"/>
       <c r="E91" s="114"/>
       <c r="F91" s="111"/>
       <c r="G91" s="111"/>
@@ -6320,9 +6320,9 @@
     </row>
     <row r="92" spans="1:29" ht="15.75" customHeight="1">
       <c r="A92" s="103"/>
-      <c r="B92" s="253"/>
+      <c r="B92" s="262"/>
       <c r="C92" s="98"/>
-      <c r="D92" s="276"/>
+      <c r="D92" s="257"/>
       <c r="E92" s="115"/>
       <c r="F92" s="105"/>
       <c r="G92" s="106"/>
@@ -6351,7 +6351,7 @@
     </row>
     <row r="93" spans="1:29" ht="15.75" customHeight="1">
       <c r="A93" s="103"/>
-      <c r="B93" s="253"/>
+      <c r="B93" s="262"/>
       <c r="C93" s="98"/>
       <c r="D93" s="116"/>
       <c r="E93" s="104"/>
@@ -6382,9 +6382,9 @@
     </row>
     <row r="94" spans="1:29" ht="15.75" customHeight="1">
       <c r="A94" s="103"/>
-      <c r="B94" s="253"/>
+      <c r="B94" s="262"/>
       <c r="C94" s="98"/>
-      <c r="D94" s="270"/>
+      <c r="D94" s="266"/>
       <c r="E94" s="117"/>
       <c r="F94" s="105"/>
       <c r="G94" s="106"/>
@@ -6413,9 +6413,9 @@
     </row>
     <row r="95" spans="1:29" ht="15.75" customHeight="1">
       <c r="A95" s="103"/>
-      <c r="B95" s="253"/>
+      <c r="B95" s="262"/>
       <c r="C95" s="98"/>
-      <c r="D95" s="265"/>
+      <c r="D95" s="251"/>
       <c r="E95" s="119"/>
       <c r="F95" s="111"/>
       <c r="G95" s="111"/>
@@ -6444,7 +6444,7 @@
     </row>
     <row r="96" spans="1:29" ht="15.75" customHeight="1">
       <c r="A96" s="103"/>
-      <c r="B96" s="253"/>
+      <c r="B96" s="262"/>
       <c r="C96" s="98"/>
       <c r="D96" s="120"/>
       <c r="E96" s="121"/>
@@ -6475,9 +6475,9 @@
     </row>
     <row r="97" spans="1:29" ht="15.75" customHeight="1">
       <c r="A97" s="103"/>
-      <c r="B97" s="253"/>
+      <c r="B97" s="262"/>
       <c r="C97" s="98"/>
-      <c r="D97" s="277"/>
+      <c r="D97" s="250"/>
       <c r="E97" s="119"/>
       <c r="F97" s="111"/>
       <c r="G97" s="111"/>
@@ -6506,9 +6506,9 @@
     </row>
     <row r="98" spans="1:29" ht="15.75" customHeight="1">
       <c r="A98" s="103"/>
-      <c r="B98" s="253"/>
+      <c r="B98" s="262"/>
       <c r="C98" s="98"/>
-      <c r="D98" s="265"/>
+      <c r="D98" s="251"/>
       <c r="E98" s="117"/>
       <c r="F98" s="111"/>
       <c r="G98" s="111"/>
@@ -6537,9 +6537,9 @@
     </row>
     <row r="99" spans="1:29" ht="15.75" customHeight="1">
       <c r="A99" s="103"/>
-      <c r="B99" s="253"/>
+      <c r="B99" s="262"/>
       <c r="C99" s="98"/>
-      <c r="D99" s="265"/>
+      <c r="D99" s="251"/>
       <c r="E99" s="119"/>
       <c r="F99" s="111"/>
       <c r="G99" s="111"/>
@@ -6568,9 +6568,9 @@
     </row>
     <row r="100" spans="1:29" ht="15.75" customHeight="1">
       <c r="A100" s="103"/>
-      <c r="B100" s="253"/>
+      <c r="B100" s="262"/>
       <c r="C100" s="98"/>
-      <c r="D100" s="265"/>
+      <c r="D100" s="251"/>
       <c r="E100" s="117"/>
       <c r="F100" s="105"/>
       <c r="G100" s="106"/>
@@ -6599,9 +6599,9 @@
     </row>
     <row r="101" spans="1:29" ht="15.75" customHeight="1">
       <c r="A101" s="103"/>
-      <c r="B101" s="253"/>
+      <c r="B101" s="262"/>
       <c r="C101" s="98"/>
-      <c r="D101" s="265"/>
+      <c r="D101" s="251"/>
       <c r="E101" s="122"/>
       <c r="F101" s="123"/>
       <c r="G101" s="113"/>
@@ -6630,9 +6630,9 @@
     </row>
     <row r="102" spans="1:29" ht="15.75" customHeight="1">
       <c r="A102" s="103"/>
-      <c r="B102" s="253"/>
+      <c r="B102" s="262"/>
       <c r="C102" s="98"/>
-      <c r="D102" s="265"/>
+      <c r="D102" s="251"/>
       <c r="E102" s="117"/>
       <c r="F102" s="124"/>
       <c r="G102" s="106"/>
@@ -6661,9 +6661,9 @@
     </row>
     <row r="103" spans="1:29" ht="15.75" customHeight="1">
       <c r="A103" s="103"/>
-      <c r="B103" s="253"/>
+      <c r="B103" s="262"/>
       <c r="C103" s="98"/>
-      <c r="D103" s="266"/>
+      <c r="D103" s="252"/>
       <c r="E103" s="122"/>
       <c r="F103" s="125"/>
       <c r="G103" s="113"/>
@@ -6692,7 +6692,7 @@
     </row>
     <row r="104" spans="1:29" ht="15.75" customHeight="1">
       <c r="A104" s="103"/>
-      <c r="B104" s="253"/>
+      <c r="B104" s="262"/>
       <c r="C104" s="98"/>
       <c r="D104" s="126"/>
       <c r="E104" s="122"/>
@@ -6723,9 +6723,9 @@
     </row>
     <row r="105" spans="1:29" ht="15.75" customHeight="1">
       <c r="A105" s="103"/>
-      <c r="B105" s="253"/>
+      <c r="B105" s="262"/>
       <c r="C105" s="98"/>
-      <c r="D105" s="280"/>
+      <c r="D105" s="256"/>
       <c r="E105" s="127"/>
       <c r="F105" s="128"/>
       <c r="G105" s="113"/>
@@ -6754,9 +6754,9 @@
     </row>
     <row r="106" spans="1:29" ht="15.75" customHeight="1">
       <c r="A106" s="103"/>
-      <c r="B106" s="253"/>
+      <c r="B106" s="262"/>
       <c r="C106" s="98"/>
-      <c r="D106" s="276"/>
+      <c r="D106" s="257"/>
       <c r="E106" s="122"/>
       <c r="F106" s="128"/>
       <c r="G106" s="113"/>
@@ -6785,9 +6785,9 @@
     </row>
     <row r="107" spans="1:29" ht="15.75" customHeight="1">
       <c r="A107" s="103"/>
-      <c r="B107" s="253"/>
+      <c r="B107" s="262"/>
       <c r="C107" s="98"/>
-      <c r="D107" s="276"/>
+      <c r="D107" s="257"/>
       <c r="E107" s="129"/>
       <c r="F107" s="118"/>
       <c r="G107" s="118"/>
@@ -6816,9 +6816,9 @@
     </row>
     <row r="108" spans="1:29" ht="15.75" customHeight="1">
       <c r="A108" s="103"/>
-      <c r="B108" s="253"/>
+      <c r="B108" s="262"/>
       <c r="C108" s="98"/>
-      <c r="D108" s="276"/>
+      <c r="D108" s="257"/>
       <c r="E108" s="129"/>
       <c r="F108" s="118"/>
       <c r="G108" s="118"/>
@@ -6847,9 +6847,9 @@
     </row>
     <row r="109" spans="1:29" ht="15.75" customHeight="1">
       <c r="A109" s="103"/>
-      <c r="B109" s="253"/>
+      <c r="B109" s="262"/>
       <c r="C109" s="98"/>
-      <c r="D109" s="276"/>
+      <c r="D109" s="257"/>
       <c r="E109" s="129"/>
       <c r="F109" s="118"/>
       <c r="G109" s="118"/>
@@ -6878,9 +6878,9 @@
     </row>
     <row r="110" spans="1:29" ht="15.75" customHeight="1">
       <c r="A110" s="103"/>
-      <c r="B110" s="253"/>
+      <c r="B110" s="262"/>
       <c r="C110" s="98"/>
-      <c r="D110" s="276"/>
+      <c r="D110" s="257"/>
       <c r="E110" s="129"/>
       <c r="F110" s="118"/>
       <c r="G110" s="118"/>
@@ -6909,9 +6909,9 @@
     </row>
     <row r="111" spans="1:29" ht="15.75" customHeight="1">
       <c r="A111" s="103"/>
-      <c r="B111" s="253"/>
+      <c r="B111" s="262"/>
       <c r="C111" s="98"/>
-      <c r="D111" s="276"/>
+      <c r="D111" s="257"/>
       <c r="E111" s="129"/>
       <c r="F111" s="118"/>
       <c r="G111" s="118"/>
@@ -6940,9 +6940,9 @@
     </row>
     <row r="112" spans="1:29" ht="15.75" customHeight="1">
       <c r="A112" s="103"/>
-      <c r="B112" s="253"/>
+      <c r="B112" s="262"/>
       <c r="C112" s="98"/>
-      <c r="D112" s="276"/>
+      <c r="D112" s="257"/>
       <c r="E112" s="129"/>
       <c r="F112" s="118"/>
       <c r="G112" s="118"/>
@@ -6971,9 +6971,9 @@
     </row>
     <row r="113" spans="1:29" ht="15.75" customHeight="1">
       <c r="A113" s="103"/>
-      <c r="B113" s="253"/>
+      <c r="B113" s="262"/>
       <c r="C113" s="98"/>
-      <c r="D113" s="281"/>
+      <c r="D113" s="258"/>
       <c r="E113" s="129"/>
       <c r="F113" s="118"/>
       <c r="G113" s="118"/>
@@ -7002,7 +7002,7 @@
     </row>
     <row r="114" spans="1:29" ht="15.75" customHeight="1">
       <c r="A114" s="103"/>
-      <c r="B114" s="253"/>
+      <c r="B114" s="262"/>
       <c r="C114" s="130"/>
       <c r="D114" s="131"/>
       <c r="E114" s="129"/>
@@ -7033,7 +7033,7 @@
     </row>
     <row r="115" spans="1:29" ht="15.75" customHeight="1">
       <c r="A115" s="103"/>
-      <c r="B115" s="253"/>
+      <c r="B115" s="262"/>
       <c r="C115" s="132"/>
       <c r="D115" s="131"/>
       <c r="E115" s="129"/>
@@ -7064,7 +7064,7 @@
     </row>
     <row r="116" spans="1:29" ht="15.75" customHeight="1">
       <c r="A116" s="103"/>
-      <c r="B116" s="253"/>
+      <c r="B116" s="262"/>
       <c r="C116" s="132"/>
       <c r="D116" s="133"/>
       <c r="E116" s="129"/>
@@ -7095,9 +7095,9 @@
     </row>
     <row r="117" spans="1:29" ht="15.75" customHeight="1">
       <c r="A117" s="103"/>
-      <c r="B117" s="253"/>
+      <c r="B117" s="262"/>
       <c r="C117" s="132"/>
-      <c r="D117" s="282"/>
+      <c r="D117" s="259"/>
       <c r="E117" s="135"/>
       <c r="F117" s="118"/>
       <c r="G117" s="118"/>
@@ -7126,9 +7126,9 @@
     </row>
     <row r="118" spans="1:29" ht="15.75" customHeight="1">
       <c r="A118" s="103"/>
-      <c r="B118" s="253"/>
+      <c r="B118" s="262"/>
       <c r="C118" s="132"/>
-      <c r="D118" s="266"/>
+      <c r="D118" s="252"/>
       <c r="E118" s="135"/>
       <c r="F118" s="118"/>
       <c r="G118" s="118"/>
@@ -7157,7 +7157,7 @@
     </row>
     <row r="119" spans="1:29" ht="15.75" customHeight="1">
       <c r="A119" s="103"/>
-      <c r="B119" s="253"/>
+      <c r="B119" s="262"/>
       <c r="C119" s="132"/>
       <c r="D119" s="136"/>
       <c r="E119" s="129"/>
@@ -7188,7 +7188,7 @@
     </row>
     <row r="120" spans="1:29" ht="15.75" customHeight="1">
       <c r="A120" s="103"/>
-      <c r="B120" s="253"/>
+      <c r="B120" s="262"/>
       <c r="C120" s="132"/>
       <c r="D120" s="137"/>
       <c r="E120" s="129"/>
@@ -7219,7 +7219,7 @@
     </row>
     <row r="121" spans="1:29" ht="15.75" customHeight="1">
       <c r="A121" s="103"/>
-      <c r="B121" s="253"/>
+      <c r="B121" s="262"/>
       <c r="C121" s="132"/>
       <c r="D121" s="137"/>
       <c r="E121" s="138"/>
@@ -7250,7 +7250,7 @@
     </row>
     <row r="122" spans="1:29" ht="15.75" customHeight="1">
       <c r="A122" s="103"/>
-      <c r="B122" s="253"/>
+      <c r="B122" s="262"/>
       <c r="C122" s="132"/>
       <c r="D122" s="137"/>
       <c r="E122" s="129"/>
@@ -7281,7 +7281,7 @@
     </row>
     <row r="123" spans="1:29" ht="15.75" customHeight="1">
       <c r="A123" s="103"/>
-      <c r="B123" s="253"/>
+      <c r="B123" s="262"/>
       <c r="C123" s="132"/>
       <c r="D123" s="137"/>
       <c r="E123" s="129"/>
@@ -7312,7 +7312,7 @@
     </row>
     <row r="124" spans="1:29" ht="15.75" customHeight="1">
       <c r="A124" s="103"/>
-      <c r="B124" s="253"/>
+      <c r="B124" s="262"/>
       <c r="C124" s="132"/>
       <c r="D124" s="137"/>
       <c r="E124" s="129"/>
@@ -7343,7 +7343,7 @@
     </row>
     <row r="125" spans="1:29" ht="15.75" customHeight="1">
       <c r="A125" s="103"/>
-      <c r="B125" s="253"/>
+      <c r="B125" s="262"/>
       <c r="C125" s="132"/>
       <c r="D125" s="137"/>
       <c r="E125" s="129"/>
@@ -7374,7 +7374,7 @@
     </row>
     <row r="126" spans="1:29" ht="15.75" customHeight="1">
       <c r="A126" s="103"/>
-      <c r="B126" s="253"/>
+      <c r="B126" s="262"/>
       <c r="C126" s="132"/>
       <c r="D126" s="137"/>
       <c r="E126" s="138"/>
@@ -7405,7 +7405,7 @@
     </row>
     <row r="127" spans="1:29" ht="15.75" customHeight="1">
       <c r="A127" s="103"/>
-      <c r="B127" s="253"/>
+      <c r="B127" s="262"/>
       <c r="C127" s="132"/>
       <c r="D127" s="137"/>
       <c r="E127" s="138"/>
@@ -7436,7 +7436,7 @@
     </row>
     <row r="128" spans="1:29" ht="15.75" customHeight="1">
       <c r="A128" s="103"/>
-      <c r="B128" s="253"/>
+      <c r="B128" s="262"/>
       <c r="C128" s="132"/>
       <c r="D128" s="137"/>
       <c r="E128" s="138"/>
@@ -7467,7 +7467,7 @@
     </row>
     <row r="129" spans="1:29" ht="15.75" customHeight="1">
       <c r="A129" s="103"/>
-      <c r="B129" s="253"/>
+      <c r="B129" s="262"/>
       <c r="C129" s="132"/>
       <c r="D129" s="137"/>
       <c r="E129" s="129"/>
@@ -7498,7 +7498,7 @@
     </row>
     <row r="130" spans="1:29" ht="15.75" customHeight="1">
       <c r="A130" s="103"/>
-      <c r="B130" s="253"/>
+      <c r="B130" s="262"/>
       <c r="C130" s="132"/>
       <c r="D130" s="137"/>
       <c r="E130" s="129"/>
@@ -7529,7 +7529,7 @@
     </row>
     <row r="131" spans="1:29" ht="15.75" customHeight="1">
       <c r="A131" s="103"/>
-      <c r="B131" s="253"/>
+      <c r="B131" s="262"/>
       <c r="C131" s="132"/>
       <c r="D131" s="137"/>
       <c r="E131" s="129"/>
@@ -7560,7 +7560,7 @@
     </row>
     <row r="132" spans="1:29" ht="15.75" customHeight="1">
       <c r="A132" s="103"/>
-      <c r="B132" s="253"/>
+      <c r="B132" s="262"/>
       <c r="C132" s="132"/>
       <c r="D132" s="137"/>
       <c r="E132" s="129"/>
@@ -7591,7 +7591,7 @@
     </row>
     <row r="133" spans="1:29" ht="15.75" customHeight="1">
       <c r="A133" s="103"/>
-      <c r="B133" s="253"/>
+      <c r="B133" s="262"/>
       <c r="C133" s="132"/>
       <c r="D133" s="137"/>
       <c r="E133" s="129"/>
@@ -7622,7 +7622,7 @@
     </row>
     <row r="134" spans="1:29" ht="15.75" customHeight="1">
       <c r="A134" s="103"/>
-      <c r="B134" s="253"/>
+      <c r="B134" s="262"/>
       <c r="C134" s="132"/>
       <c r="D134" s="137"/>
       <c r="E134" s="129"/>
@@ -7653,7 +7653,7 @@
     </row>
     <row r="135" spans="1:29" ht="15.75" customHeight="1">
       <c r="A135" s="143"/>
-      <c r="B135" s="253"/>
+      <c r="B135" s="262"/>
       <c r="C135" s="132"/>
       <c r="D135" s="144"/>
       <c r="E135" s="145"/>
@@ -7684,7 +7684,7 @@
     </row>
     <row r="136" spans="1:29" ht="15.75" customHeight="1">
       <c r="A136" s="143"/>
-      <c r="B136" s="253"/>
+      <c r="B136" s="262"/>
       <c r="C136" s="132"/>
       <c r="D136" s="146"/>
       <c r="E136" s="129"/>
@@ -7715,7 +7715,7 @@
     </row>
     <row r="137" spans="1:29" ht="15.75" customHeight="1">
       <c r="A137" s="143"/>
-      <c r="B137" s="253"/>
+      <c r="B137" s="262"/>
       <c r="C137" s="132"/>
       <c r="D137" s="146"/>
       <c r="E137" s="129"/>
@@ -7746,7 +7746,7 @@
     </row>
     <row r="138" spans="1:29" ht="15.75" customHeight="1">
       <c r="A138" s="143"/>
-      <c r="B138" s="253"/>
+      <c r="B138" s="262"/>
       <c r="C138" s="132"/>
       <c r="D138" s="146"/>
       <c r="E138" s="147"/>
@@ -7777,7 +7777,7 @@
     </row>
     <row r="139" spans="1:29" ht="15.75" customHeight="1">
       <c r="A139" s="143"/>
-      <c r="B139" s="253"/>
+      <c r="B139" s="262"/>
       <c r="C139" s="132"/>
       <c r="D139" s="146"/>
       <c r="E139" s="148"/>
@@ -7808,7 +7808,7 @@
     </row>
     <row r="140" spans="1:29" ht="15.75" customHeight="1">
       <c r="A140" s="143"/>
-      <c r="B140" s="253"/>
+      <c r="B140" s="262"/>
       <c r="C140" s="132"/>
       <c r="D140" s="146"/>
       <c r="E140" s="148"/>
@@ -7839,7 +7839,7 @@
     </row>
     <row r="141" spans="1:29" ht="15.75" customHeight="1">
       <c r="A141" s="143"/>
-      <c r="B141" s="253"/>
+      <c r="B141" s="262"/>
       <c r="C141" s="132"/>
       <c r="D141" s="146"/>
       <c r="E141" s="148"/>
@@ -7870,7 +7870,7 @@
     </row>
     <row r="142" spans="1:29" ht="15.75" customHeight="1">
       <c r="A142" s="143"/>
-      <c r="B142" s="253"/>
+      <c r="B142" s="262"/>
       <c r="C142" s="132"/>
       <c r="D142" s="146"/>
       <c r="E142" s="148"/>
@@ -7901,7 +7901,7 @@
     </row>
     <row r="143" spans="1:29" ht="15.75" customHeight="1">
       <c r="A143" s="143"/>
-      <c r="B143" s="253"/>
+      <c r="B143" s="262"/>
       <c r="C143" s="132"/>
       <c r="D143" s="146"/>
       <c r="E143" s="129"/>
@@ -7932,7 +7932,7 @@
     </row>
     <row r="144" spans="1:29" ht="15.75" customHeight="1">
       <c r="A144" s="143"/>
-      <c r="B144" s="253"/>
+      <c r="B144" s="262"/>
       <c r="C144" s="132"/>
       <c r="D144" s="146"/>
       <c r="E144" s="129"/>
@@ -7963,7 +7963,7 @@
     </row>
     <row r="145" spans="1:29" ht="15.75" customHeight="1">
       <c r="A145" s="143"/>
-      <c r="B145" s="253"/>
+      <c r="B145" s="262"/>
       <c r="C145" s="132"/>
       <c r="D145" s="146"/>
       <c r="E145" s="129"/>
@@ -7994,7 +7994,7 @@
     </row>
     <row r="146" spans="1:29" ht="15.75" customHeight="1">
       <c r="A146" s="143"/>
-      <c r="B146" s="253"/>
+      <c r="B146" s="262"/>
       <c r="C146" s="132"/>
       <c r="D146" s="146"/>
       <c r="E146" s="129"/>
@@ -8025,7 +8025,7 @@
     </row>
     <row r="147" spans="1:29" ht="15.75" customHeight="1">
       <c r="A147" s="143"/>
-      <c r="B147" s="253"/>
+      <c r="B147" s="262"/>
       <c r="C147" s="132"/>
       <c r="D147" s="146"/>
       <c r="E147" s="145"/>
@@ -8056,7 +8056,7 @@
     </row>
     <row r="148" spans="1:29" ht="15.75" customHeight="1">
       <c r="A148" s="143"/>
-      <c r="B148" s="253"/>
+      <c r="B148" s="262"/>
       <c r="C148" s="132"/>
       <c r="D148" s="149"/>
       <c r="E148" s="150"/>
@@ -8087,7 +8087,7 @@
     </row>
     <row r="149" spans="1:29" ht="15.75" customHeight="1">
       <c r="A149" s="143"/>
-      <c r="B149" s="253"/>
+      <c r="B149" s="262"/>
       <c r="C149" s="132"/>
       <c r="D149" s="151"/>
       <c r="E149" s="145"/>
@@ -8118,7 +8118,7 @@
     </row>
     <row r="150" spans="1:29" ht="15.75" customHeight="1">
       <c r="A150" s="143"/>
-      <c r="B150" s="253"/>
+      <c r="B150" s="262"/>
       <c r="C150" s="132"/>
       <c r="D150" s="267"/>
       <c r="E150" s="129"/>
@@ -8149,9 +8149,9 @@
     </row>
     <row r="151" spans="1:29" ht="15.75" customHeight="1">
       <c r="A151" s="103"/>
-      <c r="B151" s="253"/>
+      <c r="B151" s="262"/>
       <c r="C151" s="132"/>
-      <c r="D151" s="265"/>
+      <c r="D151" s="251"/>
       <c r="E151" s="129"/>
       <c r="F151" s="118"/>
       <c r="G151" s="118"/>
@@ -8160,7 +8160,7 @@
       <c r="J151" s="118"/>
       <c r="K151" s="118"/>
       <c r="L151" s="109"/>
-      <c r="M151" s="265"/>
+      <c r="M151" s="251"/>
       <c r="N151" s="102"/>
       <c r="O151" s="102"/>
       <c r="P151" s="102"/>
@@ -8180,9 +8180,9 @@
     </row>
     <row r="152" spans="1:29" ht="15.75" customHeight="1">
       <c r="A152" s="103"/>
-      <c r="B152" s="253"/>
+      <c r="B152" s="262"/>
       <c r="C152" s="132"/>
-      <c r="D152" s="265"/>
+      <c r="D152" s="251"/>
       <c r="E152" s="147"/>
       <c r="F152" s="118"/>
       <c r="G152" s="118"/>
@@ -8191,7 +8191,7 @@
       <c r="J152" s="118"/>
       <c r="K152" s="118"/>
       <c r="L152" s="109"/>
-      <c r="M152" s="265"/>
+      <c r="M152" s="251"/>
       <c r="N152" s="102"/>
       <c r="O152" s="102"/>
       <c r="P152" s="102"/>
@@ -8211,9 +8211,9 @@
     </row>
     <row r="153" spans="1:29" ht="15.75" customHeight="1">
       <c r="A153" s="103"/>
-      <c r="B153" s="253"/>
+      <c r="B153" s="262"/>
       <c r="C153" s="132"/>
-      <c r="D153" s="265"/>
+      <c r="D153" s="251"/>
       <c r="E153" s="148"/>
       <c r="F153" s="118"/>
       <c r="G153" s="118"/>
@@ -8222,7 +8222,7 @@
       <c r="J153" s="118"/>
       <c r="K153" s="118"/>
       <c r="L153" s="109"/>
-      <c r="M153" s="265"/>
+      <c r="M153" s="251"/>
       <c r="N153" s="102"/>
       <c r="O153" s="102"/>
       <c r="P153" s="102"/>
@@ -8242,9 +8242,9 @@
     </row>
     <row r="154" spans="1:29" ht="15.75" customHeight="1">
       <c r="A154" s="103"/>
-      <c r="B154" s="253"/>
+      <c r="B154" s="262"/>
       <c r="C154" s="132"/>
-      <c r="D154" s="265"/>
+      <c r="D154" s="251"/>
       <c r="E154" s="148"/>
       <c r="F154" s="118"/>
       <c r="G154" s="118"/>
@@ -8253,7 +8253,7 @@
       <c r="J154" s="118"/>
       <c r="K154" s="118"/>
       <c r="L154" s="109"/>
-      <c r="M154" s="265"/>
+      <c r="M154" s="251"/>
       <c r="N154" s="102"/>
       <c r="O154" s="102"/>
       <c r="P154" s="102"/>
@@ -8273,9 +8273,9 @@
     </row>
     <row r="155" spans="1:29" ht="15.75" customHeight="1">
       <c r="A155" s="103"/>
-      <c r="B155" s="253"/>
+      <c r="B155" s="262"/>
       <c r="C155" s="132"/>
-      <c r="D155" s="265"/>
+      <c r="D155" s="251"/>
       <c r="E155" s="148"/>
       <c r="F155" s="118"/>
       <c r="G155" s="118"/>
@@ -8284,7 +8284,7 @@
       <c r="J155" s="118"/>
       <c r="K155" s="118"/>
       <c r="L155" s="109"/>
-      <c r="M155" s="265"/>
+      <c r="M155" s="251"/>
       <c r="N155" s="102"/>
       <c r="O155" s="102"/>
       <c r="P155" s="102"/>
@@ -8304,9 +8304,9 @@
     </row>
     <row r="156" spans="1:29" ht="15.75" customHeight="1">
       <c r="A156" s="103"/>
-      <c r="B156" s="253"/>
+      <c r="B156" s="262"/>
       <c r="C156" s="132"/>
-      <c r="D156" s="265"/>
+      <c r="D156" s="251"/>
       <c r="E156" s="148"/>
       <c r="F156" s="118"/>
       <c r="G156" s="118"/>
@@ -8315,7 +8315,7 @@
       <c r="J156" s="118"/>
       <c r="K156" s="118"/>
       <c r="L156" s="109"/>
-      <c r="M156" s="265"/>
+      <c r="M156" s="251"/>
       <c r="N156" s="102"/>
       <c r="O156" s="102"/>
       <c r="P156" s="102"/>
@@ -8335,9 +8335,9 @@
     </row>
     <row r="157" spans="1:29" ht="15.75" customHeight="1">
       <c r="A157" s="103"/>
-      <c r="B157" s="253"/>
+      <c r="B157" s="262"/>
       <c r="C157" s="132"/>
-      <c r="D157" s="265"/>
+      <c r="D157" s="251"/>
       <c r="E157" s="129"/>
       <c r="F157" s="118"/>
       <c r="G157" s="118"/>
@@ -8346,7 +8346,7 @@
       <c r="J157" s="118"/>
       <c r="K157" s="118"/>
       <c r="L157" s="109"/>
-      <c r="M157" s="266"/>
+      <c r="M157" s="252"/>
       <c r="N157" s="102"/>
       <c r="O157" s="102"/>
       <c r="P157" s="102"/>
@@ -8366,9 +8366,9 @@
     </row>
     <row r="158" spans="1:29" ht="15.75" customHeight="1">
       <c r="A158" s="103"/>
-      <c r="B158" s="253"/>
+      <c r="B158" s="262"/>
       <c r="C158" s="132"/>
-      <c r="D158" s="265"/>
+      <c r="D158" s="251"/>
       <c r="E158" s="129"/>
       <c r="F158" s="118"/>
       <c r="G158" s="118"/>
@@ -8397,9 +8397,9 @@
     </row>
     <row r="159" spans="1:29" ht="15.75" customHeight="1">
       <c r="A159" s="103"/>
-      <c r="B159" s="253"/>
+      <c r="B159" s="262"/>
       <c r="C159" s="132"/>
-      <c r="D159" s="265"/>
+      <c r="D159" s="251"/>
       <c r="E159" s="129"/>
       <c r="F159" s="118"/>
       <c r="G159" s="118"/>
@@ -8428,9 +8428,9 @@
     </row>
     <row r="160" spans="1:29" ht="15.75" customHeight="1">
       <c r="A160" s="103"/>
-      <c r="B160" s="254"/>
+      <c r="B160" s="263"/>
       <c r="C160" s="132"/>
-      <c r="D160" s="265"/>
+      <c r="D160" s="251"/>
       <c r="E160" s="129"/>
       <c r="F160" s="118"/>
       <c r="G160" s="118"/>
@@ -8494,7 +8494,7 @@
       <c r="C162" s="155" t="s">
         <v>49</v>
       </c>
-      <c r="D162" s="283"/>
+      <c r="D162" s="260"/>
       <c r="E162" s="129"/>
       <c r="F162" s="118"/>
       <c r="G162" s="142"/>
@@ -8525,7 +8525,7 @@
       <c r="A163" s="153"/>
       <c r="B163" s="151"/>
       <c r="C163" s="158"/>
-      <c r="D163" s="265"/>
+      <c r="D163" s="251"/>
       <c r="E163" s="129"/>
       <c r="F163" s="118"/>
       <c r="G163" s="142"/>
@@ -8556,7 +8556,7 @@
       <c r="A164" s="153"/>
       <c r="B164" s="151"/>
       <c r="C164" s="158"/>
-      <c r="D164" s="265"/>
+      <c r="D164" s="251"/>
       <c r="E164" s="129"/>
       <c r="F164" s="118"/>
       <c r="G164" s="142"/>
@@ -8587,7 +8587,7 @@
       <c r="A165" s="153"/>
       <c r="B165" s="151"/>
       <c r="C165" s="151"/>
-      <c r="D165" s="265"/>
+      <c r="D165" s="251"/>
       <c r="E165" s="138"/>
       <c r="F165" s="118"/>
       <c r="G165" s="142"/>
@@ -8618,7 +8618,7 @@
       <c r="A166" s="153"/>
       <c r="B166" s="156"/>
       <c r="C166" s="151"/>
-      <c r="D166" s="265"/>
+      <c r="D166" s="251"/>
       <c r="E166" s="138"/>
       <c r="F166" s="118"/>
       <c r="G166" s="142"/>
@@ -8649,7 +8649,7 @@
       <c r="A167" s="153"/>
       <c r="B167" s="156"/>
       <c r="C167" s="151"/>
-      <c r="D167" s="265"/>
+      <c r="D167" s="251"/>
       <c r="E167" s="138"/>
       <c r="F167" s="118"/>
       <c r="G167" s="142"/>
@@ -8680,7 +8680,7 @@
       <c r="A168" s="153"/>
       <c r="B168" s="156"/>
       <c r="C168" s="151"/>
-      <c r="D168" s="265"/>
+      <c r="D168" s="251"/>
       <c r="E168" s="129"/>
       <c r="F168" s="118"/>
       <c r="G168" s="142"/>
@@ -8711,7 +8711,7 @@
       <c r="A169" s="153"/>
       <c r="B169" s="156"/>
       <c r="C169" s="151"/>
-      <c r="D169" s="265"/>
+      <c r="D169" s="251"/>
       <c r="E169" s="129"/>
       <c r="F169" s="118"/>
       <c r="G169" s="142"/>
@@ -8742,7 +8742,7 @@
       <c r="A170" s="153"/>
       <c r="B170" s="156"/>
       <c r="C170" s="156"/>
-      <c r="D170" s="266"/>
+      <c r="D170" s="252"/>
       <c r="E170" s="129"/>
       <c r="F170" s="118"/>
       <c r="G170" s="142"/>
@@ -10113,8 +10113,8 @@
       <c r="H214" s="179"/>
       <c r="I214" s="179"/>
       <c r="J214" s="179"/>
-      <c r="K214" s="265"/>
-      <c r="L214" s="265"/>
+      <c r="K214" s="251"/>
+      <c r="L214" s="251"/>
       <c r="M214" s="172"/>
       <c r="N214" s="102"/>
       <c r="O214" s="102"/>
@@ -10144,8 +10144,8 @@
       <c r="H215" s="100"/>
       <c r="I215" s="100"/>
       <c r="J215" s="100"/>
-      <c r="K215" s="266"/>
-      <c r="L215" s="266"/>
+      <c r="K215" s="252"/>
+      <c r="L215" s="252"/>
       <c r="M215" s="172"/>
       <c r="N215" s="102"/>
       <c r="O215" s="102"/>
@@ -10353,9 +10353,9 @@
     <row r="222" spans="1:29" ht="15.75" customHeight="1">
       <c r="A222" s="153"/>
       <c r="B222" s="165"/>
-      <c r="C222" s="264"/>
+      <c r="C222" s="253"/>
       <c r="D222" s="151"/>
-      <c r="E222" s="270"/>
+      <c r="E222" s="266"/>
       <c r="F222" s="111"/>
       <c r="G222" s="111"/>
       <c r="H222" s="111"/>
@@ -10384,9 +10384,9 @@
     <row r="223" spans="1:29" ht="15.75" customHeight="1">
       <c r="A223" s="153"/>
       <c r="B223" s="165"/>
-      <c r="C223" s="265"/>
+      <c r="C223" s="251"/>
       <c r="D223" s="151"/>
-      <c r="E223" s="265"/>
+      <c r="E223" s="251"/>
       <c r="F223" s="111"/>
       <c r="G223" s="111"/>
       <c r="H223" s="111"/>
@@ -10415,9 +10415,9 @@
     <row r="224" spans="1:29" ht="15.75" customHeight="1">
       <c r="A224" s="153"/>
       <c r="B224" s="165"/>
-      <c r="C224" s="265"/>
+      <c r="C224" s="251"/>
       <c r="D224" s="151"/>
-      <c r="E224" s="266"/>
+      <c r="E224" s="252"/>
       <c r="F224" s="111"/>
       <c r="G224" s="111"/>
       <c r="H224" s="111"/>
@@ -10446,7 +10446,7 @@
     <row r="225" spans="1:29" ht="15.75" customHeight="1">
       <c r="A225" s="153"/>
       <c r="B225" s="165"/>
-      <c r="C225" s="265"/>
+      <c r="C225" s="251"/>
       <c r="D225" s="151"/>
       <c r="E225" s="119"/>
       <c r="F225" s="111"/>
@@ -10477,7 +10477,7 @@
     <row r="226" spans="1:29" ht="15.75" customHeight="1">
       <c r="A226" s="153"/>
       <c r="B226" s="165"/>
-      <c r="C226" s="265"/>
+      <c r="C226" s="251"/>
       <c r="D226" s="151"/>
       <c r="E226" s="119"/>
       <c r="F226" s="111"/>
@@ -10508,7 +10508,7 @@
     <row r="227" spans="1:29" ht="15.75" customHeight="1">
       <c r="A227" s="153"/>
       <c r="B227" s="165"/>
-      <c r="C227" s="265"/>
+      <c r="C227" s="251"/>
       <c r="D227" s="151"/>
       <c r="E227" s="119"/>
       <c r="F227" s="175"/>
@@ -10539,7 +10539,7 @@
     <row r="228" spans="1:29" ht="15.75" customHeight="1">
       <c r="A228" s="153"/>
       <c r="B228" s="165"/>
-      <c r="C228" s="266"/>
+      <c r="C228" s="252"/>
       <c r="D228" s="151"/>
       <c r="E228" s="119"/>
       <c r="F228" s="111"/>
@@ -10570,7 +10570,7 @@
     <row r="229" spans="1:29" ht="15.75" customHeight="1">
       <c r="A229" s="153"/>
       <c r="B229" s="165"/>
-      <c r="C229" s="278"/>
+      <c r="C229" s="254"/>
       <c r="D229" s="163"/>
       <c r="E229" s="119"/>
       <c r="F229" s="175"/>
@@ -10601,7 +10601,7 @@
     <row r="230" spans="1:29" ht="15.75" customHeight="1">
       <c r="A230" s="153"/>
       <c r="B230" s="165"/>
-      <c r="C230" s="266"/>
+      <c r="C230" s="252"/>
       <c r="D230" s="183"/>
       <c r="E230" s="119"/>
       <c r="F230" s="175"/>
@@ -10663,7 +10663,7 @@
     <row r="232" spans="1:29" ht="30" customHeight="1">
       <c r="A232" s="153"/>
       <c r="B232" s="165"/>
-      <c r="C232" s="278"/>
+      <c r="C232" s="254"/>
       <c r="D232" s="163"/>
       <c r="E232" s="119"/>
       <c r="F232" s="111"/>
@@ -10694,7 +10694,7 @@
     <row r="233" spans="1:29" ht="15.75" customHeight="1">
       <c r="A233" s="153"/>
       <c r="B233" s="165"/>
-      <c r="C233" s="265"/>
+      <c r="C233" s="251"/>
       <c r="D233" s="164"/>
       <c r="E233" s="119"/>
       <c r="F233" s="111"/>
@@ -10725,7 +10725,7 @@
     <row r="234" spans="1:29" ht="15.75" customHeight="1">
       <c r="A234" s="153"/>
       <c r="B234" s="165"/>
-      <c r="C234" s="265"/>
+      <c r="C234" s="251"/>
       <c r="D234" s="164"/>
       <c r="E234" s="119"/>
       <c r="F234" s="111"/>
@@ -10756,7 +10756,7 @@
     <row r="235" spans="1:29" ht="15.75" customHeight="1">
       <c r="A235" s="153"/>
       <c r="B235" s="165"/>
-      <c r="C235" s="265"/>
+      <c r="C235" s="251"/>
       <c r="D235" s="164"/>
       <c r="E235" s="119"/>
       <c r="F235" s="175"/>
@@ -10787,7 +10787,7 @@
     <row r="236" spans="1:29" ht="15.75" customHeight="1">
       <c r="A236" s="153"/>
       <c r="B236" s="165"/>
-      <c r="C236" s="266"/>
+      <c r="C236" s="252"/>
       <c r="D236" s="164"/>
       <c r="E236" s="185"/>
       <c r="F236" s="111"/>
@@ -11167,7 +11167,7 @@
       <c r="H248" s="175"/>
       <c r="I248" s="175"/>
       <c r="J248" s="175"/>
-      <c r="K248" s="271"/>
+      <c r="K248" s="270"/>
       <c r="L248" s="109"/>
       <c r="M248" s="140"/>
       <c r="N248" s="102"/>
@@ -11198,7 +11198,7 @@
       <c r="H249" s="175"/>
       <c r="I249" s="175"/>
       <c r="J249" s="175"/>
-      <c r="K249" s="266"/>
+      <c r="K249" s="252"/>
       <c r="L249" s="109"/>
       <c r="M249" s="140"/>
       <c r="N249" s="102"/>
@@ -11283,7 +11283,7 @@
     <row r="252" spans="1:29" ht="15.75" customHeight="1">
       <c r="A252" s="153"/>
       <c r="B252" s="165"/>
-      <c r="C252" s="278"/>
+      <c r="C252" s="254"/>
       <c r="D252" s="163"/>
       <c r="E252" s="119"/>
       <c r="F252" s="175"/>
@@ -11314,7 +11314,7 @@
     <row r="253" spans="1:29" ht="15.75" customHeight="1">
       <c r="A253" s="153"/>
       <c r="B253" s="165"/>
-      <c r="C253" s="266"/>
+      <c r="C253" s="252"/>
       <c r="D253" s="183"/>
       <c r="E253" s="119"/>
       <c r="F253" s="175"/>
@@ -11322,7 +11322,7 @@
       <c r="H253" s="175"/>
       <c r="I253" s="175"/>
       <c r="J253" s="175"/>
-      <c r="K253" s="266"/>
+      <c r="K253" s="252"/>
       <c r="L253" s="109"/>
       <c r="M253" s="140"/>
       <c r="N253" s="102"/>
@@ -11345,7 +11345,7 @@
     <row r="254" spans="1:29" ht="15.75" customHeight="1">
       <c r="A254" s="153"/>
       <c r="B254" s="165"/>
-      <c r="C254" s="264"/>
+      <c r="C254" s="253"/>
       <c r="D254" s="176"/>
       <c r="E254" s="138"/>
       <c r="F254" s="118"/>
@@ -11376,7 +11376,7 @@
     <row r="255" spans="1:29" ht="15.75" customHeight="1">
       <c r="A255" s="153"/>
       <c r="B255" s="165"/>
-      <c r="C255" s="266"/>
+      <c r="C255" s="252"/>
       <c r="D255" s="136"/>
       <c r="E255" s="138"/>
       <c r="F255" s="118"/>
@@ -11438,7 +11438,7 @@
     <row r="257" spans="1:29" ht="15.75" customHeight="1">
       <c r="A257" s="153"/>
       <c r="B257" s="165"/>
-      <c r="C257" s="278"/>
+      <c r="C257" s="254"/>
       <c r="D257" s="163"/>
       <c r="E257" s="138"/>
       <c r="F257" s="118"/>
@@ -11469,7 +11469,7 @@
     <row r="258" spans="1:29" ht="15.75" customHeight="1">
       <c r="A258" s="153"/>
       <c r="B258" s="165"/>
-      <c r="C258" s="265"/>
+      <c r="C258" s="251"/>
       <c r="D258" s="164"/>
       <c r="E258" s="138"/>
       <c r="F258" s="118"/>
@@ -11500,7 +11500,7 @@
     <row r="259" spans="1:29" ht="15.75" customHeight="1">
       <c r="A259" s="153"/>
       <c r="B259" s="165"/>
-      <c r="C259" s="266"/>
+      <c r="C259" s="252"/>
       <c r="D259" s="183"/>
       <c r="E259" s="138"/>
       <c r="F259" s="118"/>
@@ -11685,10 +11685,10 @@
     </row>
     <row r="265" spans="1:29" ht="15.75" customHeight="1">
       <c r="A265" s="160"/>
-      <c r="B265" s="279"/>
-      <c r="C265" s="264"/>
+      <c r="B265" s="255"/>
+      <c r="C265" s="253"/>
       <c r="D265" s="151"/>
-      <c r="E265" s="264"/>
+      <c r="E265" s="253"/>
       <c r="F265" s="111"/>
       <c r="G265" s="111"/>
       <c r="H265" s="111"/>
@@ -11716,10 +11716,10 @@
     </row>
     <row r="266" spans="1:29" ht="15.75" customHeight="1">
       <c r="A266" s="160"/>
-      <c r="B266" s="265"/>
-      <c r="C266" s="265"/>
+      <c r="B266" s="251"/>
+      <c r="C266" s="251"/>
       <c r="D266" s="151"/>
-      <c r="E266" s="265"/>
+      <c r="E266" s="251"/>
       <c r="F266" s="111"/>
       <c r="G266" s="111"/>
       <c r="H266" s="111"/>
@@ -11747,10 +11747,10 @@
     </row>
     <row r="267" spans="1:29" ht="15.75" customHeight="1">
       <c r="A267" s="160"/>
-      <c r="B267" s="265"/>
-      <c r="C267" s="265"/>
+      <c r="B267" s="251"/>
+      <c r="C267" s="251"/>
       <c r="D267" s="151"/>
-      <c r="E267" s="265"/>
+      <c r="E267" s="251"/>
       <c r="F267" s="111"/>
       <c r="G267" s="111"/>
       <c r="H267" s="111"/>
@@ -11778,10 +11778,10 @@
     </row>
     <row r="268" spans="1:29" ht="15.75" customHeight="1">
       <c r="A268" s="160"/>
-      <c r="B268" s="265"/>
-      <c r="C268" s="265"/>
+      <c r="B268" s="251"/>
+      <c r="C268" s="251"/>
       <c r="D268" s="151"/>
-      <c r="E268" s="265"/>
+      <c r="E268" s="251"/>
       <c r="F268" s="111"/>
       <c r="G268" s="111"/>
       <c r="H268" s="111"/>
@@ -11809,10 +11809,10 @@
     </row>
     <row r="269" spans="1:29" ht="15.75" customHeight="1">
       <c r="A269" s="160"/>
-      <c r="B269" s="265"/>
-      <c r="C269" s="265"/>
+      <c r="B269" s="251"/>
+      <c r="C269" s="251"/>
       <c r="D269" s="151"/>
-      <c r="E269" s="265"/>
+      <c r="E269" s="251"/>
       <c r="F269" s="111"/>
       <c r="G269" s="111"/>
       <c r="H269" s="111"/>
@@ -11840,10 +11840,10 @@
     </row>
     <row r="270" spans="1:29" ht="15.75" customHeight="1">
       <c r="A270" s="160"/>
-      <c r="B270" s="265"/>
-      <c r="C270" s="265"/>
+      <c r="B270" s="251"/>
+      <c r="C270" s="251"/>
       <c r="D270" s="151"/>
-      <c r="E270" s="265"/>
+      <c r="E270" s="251"/>
       <c r="F270" s="175"/>
       <c r="G270" s="175"/>
       <c r="H270" s="175"/>
@@ -11871,10 +11871,10 @@
     </row>
     <row r="271" spans="1:29" ht="15.75" customHeight="1">
       <c r="A271" s="160"/>
-      <c r="B271" s="265"/>
-      <c r="C271" s="265"/>
+      <c r="B271" s="251"/>
+      <c r="C271" s="251"/>
       <c r="D271" s="151"/>
-      <c r="E271" s="265"/>
+      <c r="E271" s="251"/>
       <c r="F271" s="111"/>
       <c r="G271" s="111"/>
       <c r="H271" s="111"/>
@@ -11902,10 +11902,10 @@
     </row>
     <row r="272" spans="1:29" ht="15.75" customHeight="1">
       <c r="A272" s="160"/>
-      <c r="B272" s="265"/>
-      <c r="C272" s="265"/>
+      <c r="B272" s="251"/>
+      <c r="C272" s="251"/>
       <c r="D272" s="151"/>
-      <c r="E272" s="266"/>
+      <c r="E272" s="252"/>
       <c r="F272" s="111"/>
       <c r="G272" s="111"/>
       <c r="H272" s="111"/>
@@ -11933,8 +11933,8 @@
     </row>
     <row r="273" spans="1:29" ht="15.75" customHeight="1">
       <c r="A273" s="160"/>
-      <c r="B273" s="265"/>
-      <c r="C273" s="265"/>
+      <c r="B273" s="251"/>
+      <c r="C273" s="251"/>
       <c r="D273" s="151"/>
       <c r="E273" s="156"/>
       <c r="F273" s="108"/>
@@ -11964,8 +11964,8 @@
     </row>
     <row r="274" spans="1:29" ht="15.75" customHeight="1">
       <c r="A274" s="160"/>
-      <c r="B274" s="265"/>
-      <c r="C274" s="265"/>
+      <c r="B274" s="251"/>
+      <c r="C274" s="251"/>
       <c r="D274" s="151"/>
       <c r="E274" s="156"/>
       <c r="F274" s="109"/>
@@ -11995,10 +11995,10 @@
     </row>
     <row r="275" spans="1:29" ht="15.75" customHeight="1">
       <c r="A275" s="160"/>
-      <c r="B275" s="265"/>
-      <c r="C275" s="265"/>
+      <c r="B275" s="251"/>
+      <c r="C275" s="251"/>
       <c r="D275" s="176"/>
-      <c r="E275" s="264"/>
+      <c r="E275" s="253"/>
       <c r="F275" s="118"/>
       <c r="G275" s="118"/>
       <c r="H275" s="118"/>
@@ -12026,10 +12026,10 @@
     </row>
     <row r="276" spans="1:29" ht="15.75" customHeight="1">
       <c r="A276" s="160"/>
-      <c r="B276" s="265"/>
-      <c r="C276" s="265"/>
+      <c r="B276" s="251"/>
+      <c r="C276" s="251"/>
       <c r="D276" s="157"/>
-      <c r="E276" s="265"/>
+      <c r="E276" s="251"/>
       <c r="F276" s="109"/>
       <c r="G276" s="109"/>
       <c r="H276" s="109"/>
@@ -12057,10 +12057,10 @@
     </row>
     <row r="277" spans="1:29" ht="15.75" customHeight="1">
       <c r="A277" s="160"/>
-      <c r="B277" s="265"/>
-      <c r="C277" s="265"/>
+      <c r="B277" s="251"/>
+      <c r="C277" s="251"/>
       <c r="D277" s="157"/>
-      <c r="E277" s="265"/>
+      <c r="E277" s="251"/>
       <c r="F277" s="109"/>
       <c r="G277" s="109"/>
       <c r="H277" s="109"/>
@@ -12088,10 +12088,10 @@
     </row>
     <row r="278" spans="1:29" ht="15.75" customHeight="1">
       <c r="A278" s="160"/>
-      <c r="B278" s="265"/>
-      <c r="C278" s="266"/>
+      <c r="B278" s="251"/>
+      <c r="C278" s="252"/>
       <c r="D278" s="136"/>
-      <c r="E278" s="266"/>
+      <c r="E278" s="252"/>
       <c r="F278" s="109"/>
       <c r="G278" s="109"/>
       <c r="H278" s="109"/>
@@ -12119,7 +12119,7 @@
     </row>
     <row r="279" spans="1:29" ht="15.75" customHeight="1">
       <c r="A279" s="160"/>
-      <c r="B279" s="265"/>
+      <c r="B279" s="251"/>
       <c r="C279" s="151"/>
       <c r="D279" s="157"/>
       <c r="E279" s="157"/>
@@ -12150,10 +12150,10 @@
     </row>
     <row r="280" spans="1:29" ht="15.75" customHeight="1">
       <c r="A280" s="160"/>
-      <c r="B280" s="265"/>
-      <c r="C280" s="264"/>
+      <c r="B280" s="251"/>
+      <c r="C280" s="253"/>
       <c r="D280" s="176"/>
-      <c r="E280" s="272"/>
+      <c r="E280" s="271"/>
       <c r="F280" s="118"/>
       <c r="G280" s="118"/>
       <c r="H280" s="118"/>
@@ -12181,10 +12181,10 @@
     </row>
     <row r="281" spans="1:29" ht="15.75" customHeight="1">
       <c r="A281" s="160"/>
-      <c r="B281" s="265"/>
-      <c r="C281" s="265"/>
+      <c r="B281" s="251"/>
+      <c r="C281" s="251"/>
       <c r="D281" s="136"/>
-      <c r="E281" s="266"/>
+      <c r="E281" s="252"/>
       <c r="F281" s="118"/>
       <c r="G281" s="118"/>
       <c r="H281" s="118"/>
@@ -12212,10 +12212,10 @@
     </row>
     <row r="282" spans="1:29" ht="15.75" customHeight="1">
       <c r="A282" s="160"/>
-      <c r="B282" s="265"/>
-      <c r="C282" s="265"/>
+      <c r="B282" s="251"/>
+      <c r="C282" s="251"/>
       <c r="D282" s="151"/>
-      <c r="E282" s="272"/>
+      <c r="E282" s="271"/>
       <c r="F282" s="118"/>
       <c r="G282" s="118"/>
       <c r="H282" s="118"/>
@@ -12243,10 +12243,10 @@
     </row>
     <row r="283" spans="1:29" ht="15.75" customHeight="1">
       <c r="A283" s="160"/>
-      <c r="B283" s="265"/>
-      <c r="C283" s="266"/>
+      <c r="B283" s="251"/>
+      <c r="C283" s="252"/>
       <c r="D283" s="151"/>
-      <c r="E283" s="266"/>
+      <c r="E283" s="252"/>
       <c r="F283" s="118"/>
       <c r="G283" s="118"/>
       <c r="H283" s="118"/>
@@ -12274,7 +12274,7 @@
     </row>
     <row r="284" spans="1:29" ht="15.75" customHeight="1">
       <c r="A284" s="160"/>
-      <c r="B284" s="265"/>
+      <c r="B284" s="251"/>
       <c r="C284" s="156"/>
       <c r="D284" s="156"/>
       <c r="E284" s="160"/>
@@ -12305,10 +12305,10 @@
     </row>
     <row r="285" spans="1:29" ht="15.75" customHeight="1">
       <c r="A285" s="160"/>
-      <c r="B285" s="265"/>
-      <c r="C285" s="264"/>
+      <c r="B285" s="251"/>
+      <c r="C285" s="253"/>
       <c r="D285" s="176"/>
-      <c r="E285" s="264"/>
+      <c r="E285" s="253"/>
       <c r="F285" s="118"/>
       <c r="G285" s="118"/>
       <c r="H285" s="118"/>
@@ -12336,10 +12336,10 @@
     </row>
     <row r="286" spans="1:29" ht="15.75" customHeight="1">
       <c r="A286" s="160"/>
-      <c r="B286" s="265"/>
-      <c r="C286" s="265"/>
+      <c r="B286" s="251"/>
+      <c r="C286" s="251"/>
       <c r="D286" s="157"/>
-      <c r="E286" s="265"/>
+      <c r="E286" s="251"/>
       <c r="F286" s="118"/>
       <c r="G286" s="118"/>
       <c r="H286" s="118"/>
@@ -12367,10 +12367,10 @@
     </row>
     <row r="287" spans="1:29" ht="15.75" customHeight="1">
       <c r="A287" s="160"/>
-      <c r="B287" s="265"/>
-      <c r="C287" s="265"/>
+      <c r="B287" s="251"/>
+      <c r="C287" s="251"/>
       <c r="D287" s="157"/>
-      <c r="E287" s="265"/>
+      <c r="E287" s="251"/>
       <c r="F287" s="118"/>
       <c r="G287" s="118"/>
       <c r="H287" s="118"/>
@@ -12398,10 +12398,10 @@
     </row>
     <row r="288" spans="1:29" ht="15.75" customHeight="1">
       <c r="A288" s="160"/>
-      <c r="B288" s="265"/>
-      <c r="C288" s="265"/>
+      <c r="B288" s="251"/>
+      <c r="C288" s="251"/>
       <c r="D288" s="157"/>
-      <c r="E288" s="265"/>
+      <c r="E288" s="251"/>
       <c r="F288" s="118"/>
       <c r="G288" s="118"/>
       <c r="H288" s="118"/>
@@ -12429,10 +12429,10 @@
     </row>
     <row r="289" spans="1:29" ht="15.75" customHeight="1">
       <c r="A289" s="160"/>
-      <c r="B289" s="265"/>
-      <c r="C289" s="265"/>
+      <c r="B289" s="251"/>
+      <c r="C289" s="251"/>
       <c r="D289" s="157"/>
-      <c r="E289" s="265"/>
+      <c r="E289" s="251"/>
       <c r="F289" s="111"/>
       <c r="G289" s="111"/>
       <c r="H289" s="111"/>
@@ -12460,10 +12460,10 @@
     </row>
     <row r="290" spans="1:29" ht="15.75" customHeight="1">
       <c r="A290" s="160"/>
-      <c r="B290" s="265"/>
-      <c r="C290" s="265"/>
+      <c r="B290" s="251"/>
+      <c r="C290" s="251"/>
       <c r="D290" s="136"/>
-      <c r="E290" s="266"/>
+      <c r="E290" s="252"/>
       <c r="F290" s="111"/>
       <c r="G290" s="111"/>
       <c r="H290" s="111"/>
@@ -12491,10 +12491,10 @@
     </row>
     <row r="291" spans="1:29" ht="15.75" customHeight="1">
       <c r="A291" s="160"/>
-      <c r="B291" s="265"/>
-      <c r="C291" s="265"/>
+      <c r="B291" s="251"/>
+      <c r="C291" s="251"/>
       <c r="D291" s="176"/>
-      <c r="E291" s="264"/>
+      <c r="E291" s="253"/>
       <c r="F291" s="118"/>
       <c r="G291" s="118"/>
       <c r="H291" s="118"/>
@@ -12522,10 +12522,10 @@
     </row>
     <row r="292" spans="1:29" ht="15.75" customHeight="1">
       <c r="A292" s="160"/>
-      <c r="B292" s="265"/>
-      <c r="C292" s="265"/>
+      <c r="B292" s="251"/>
+      <c r="C292" s="251"/>
       <c r="D292" s="157"/>
-      <c r="E292" s="265"/>
+      <c r="E292" s="251"/>
       <c r="F292" s="109"/>
       <c r="G292" s="109"/>
       <c r="H292" s="109"/>
@@ -12553,10 +12553,10 @@
     </row>
     <row r="293" spans="1:29" ht="15.75" customHeight="1">
       <c r="A293" s="160"/>
-      <c r="B293" s="265"/>
-      <c r="C293" s="265"/>
+      <c r="B293" s="251"/>
+      <c r="C293" s="251"/>
       <c r="D293" s="157"/>
-      <c r="E293" s="265"/>
+      <c r="E293" s="251"/>
       <c r="F293" s="109"/>
       <c r="G293" s="109"/>
       <c r="H293" s="109"/>
@@ -12584,10 +12584,10 @@
     </row>
     <row r="294" spans="1:29" ht="15.75" customHeight="1">
       <c r="A294" s="160"/>
-      <c r="B294" s="266"/>
-      <c r="C294" s="266"/>
+      <c r="B294" s="252"/>
+      <c r="C294" s="252"/>
       <c r="D294" s="136"/>
-      <c r="E294" s="266"/>
+      <c r="E294" s="252"/>
       <c r="F294" s="109"/>
       <c r="G294" s="109"/>
       <c r="H294" s="109"/>
@@ -15337,38 +15337,6 @@
     <row r="976" ht="15.75" customHeight="1"/>
   </sheetData>
   <mergeCells count="48">
-    <mergeCell ref="D97:D103"/>
-    <mergeCell ref="C254:C255"/>
-    <mergeCell ref="C257:C259"/>
-    <mergeCell ref="B265:B294"/>
-    <mergeCell ref="C265:C278"/>
-    <mergeCell ref="C280:C283"/>
-    <mergeCell ref="C285:C294"/>
-    <mergeCell ref="D105:D113"/>
-    <mergeCell ref="D117:D118"/>
-    <mergeCell ref="D162:D170"/>
-    <mergeCell ref="C222:C228"/>
-    <mergeCell ref="C229:C230"/>
-    <mergeCell ref="C232:C236"/>
-    <mergeCell ref="C252:C253"/>
-    <mergeCell ref="D62:D66"/>
-    <mergeCell ref="D68:D69"/>
-    <mergeCell ref="D71:D81"/>
-    <mergeCell ref="D83:D92"/>
-    <mergeCell ref="D94:D95"/>
-    <mergeCell ref="E291:E294"/>
-    <mergeCell ref="D150:D160"/>
-    <mergeCell ref="M150:M157"/>
-    <mergeCell ref="K213:K215"/>
-    <mergeCell ref="L213:L215"/>
-    <mergeCell ref="E222:E224"/>
-    <mergeCell ref="K248:K249"/>
-    <mergeCell ref="K252:K253"/>
-    <mergeCell ref="E265:E272"/>
-    <mergeCell ref="E275:E278"/>
-    <mergeCell ref="E280:E281"/>
-    <mergeCell ref="E282:E283"/>
-    <mergeCell ref="E285:E290"/>
     <mergeCell ref="A5:B5"/>
     <mergeCell ref="C10:C17"/>
     <mergeCell ref="A1:B1"/>
@@ -15385,6 +15353,38 @@
     <mergeCell ref="D38:D49"/>
     <mergeCell ref="C51:C55"/>
     <mergeCell ref="D51:D54"/>
+    <mergeCell ref="E291:E294"/>
+    <mergeCell ref="D150:D160"/>
+    <mergeCell ref="M150:M157"/>
+    <mergeCell ref="K213:K215"/>
+    <mergeCell ref="L213:L215"/>
+    <mergeCell ref="E222:E224"/>
+    <mergeCell ref="K248:K249"/>
+    <mergeCell ref="K252:K253"/>
+    <mergeCell ref="E265:E272"/>
+    <mergeCell ref="E275:E278"/>
+    <mergeCell ref="E280:E281"/>
+    <mergeCell ref="E282:E283"/>
+    <mergeCell ref="E285:E290"/>
+    <mergeCell ref="D62:D66"/>
+    <mergeCell ref="D68:D69"/>
+    <mergeCell ref="D71:D81"/>
+    <mergeCell ref="D83:D92"/>
+    <mergeCell ref="D94:D95"/>
+    <mergeCell ref="D97:D103"/>
+    <mergeCell ref="C254:C255"/>
+    <mergeCell ref="C257:C259"/>
+    <mergeCell ref="B265:B294"/>
+    <mergeCell ref="C265:C278"/>
+    <mergeCell ref="C280:C283"/>
+    <mergeCell ref="C285:C294"/>
+    <mergeCell ref="D105:D113"/>
+    <mergeCell ref="D117:D118"/>
+    <mergeCell ref="D162:D170"/>
+    <mergeCell ref="C222:C228"/>
+    <mergeCell ref="C229:C230"/>
+    <mergeCell ref="C232:C236"/>
+    <mergeCell ref="C252:C253"/>
   </mergeCells>
   <conditionalFormatting sqref="L8">
     <cfRule type="cellIs" dxfId="7" priority="9" operator="equal">
@@ -15469,39 +15469,39 @@
     <row r="2" spans="1:26" ht="15.75" customHeight="1"/>
     <row r="3" spans="1:26" ht="8.25" customHeight="1"/>
     <row r="4" spans="1:26" ht="25.5" customHeight="1">
-      <c r="B4" s="284" t="s">
+      <c r="B4" s="307" t="s">
         <v>50</v>
       </c>
-      <c r="C4" s="259"/>
-      <c r="D4" s="259"/>
-      <c r="E4" s="259"/>
-      <c r="F4" s="259"/>
-      <c r="G4" s="251"/>
+      <c r="C4" s="279"/>
+      <c r="D4" s="279"/>
+      <c r="E4" s="279"/>
+      <c r="F4" s="279"/>
+      <c r="G4" s="273"/>
       <c r="K4" s="203"/>
     </row>
     <row r="5" spans="1:26" ht="15.75" customHeight="1">
       <c r="B5" s="204" t="s">
         <v>51</v>
       </c>
-      <c r="C5" s="285" t="s">
+      <c r="C5" s="295" t="s">
         <v>96</v>
       </c>
-      <c r="D5" s="286"/>
-      <c r="E5" s="286"/>
-      <c r="F5" s="286"/>
-      <c r="G5" s="287"/>
+      <c r="D5" s="296"/>
+      <c r="E5" s="296"/>
+      <c r="F5" s="296"/>
+      <c r="G5" s="297"/>
     </row>
     <row r="6" spans="1:26" ht="15.75" customHeight="1">
       <c r="B6" s="205" t="s">
         <v>52</v>
       </c>
-      <c r="C6" s="285" t="s">
+      <c r="C6" s="295" t="s">
         <v>95</v>
       </c>
-      <c r="D6" s="286"/>
-      <c r="E6" s="286"/>
-      <c r="F6" s="286"/>
-      <c r="G6" s="287"/>
+      <c r="D6" s="296"/>
+      <c r="E6" s="296"/>
+      <c r="F6" s="296"/>
+      <c r="G6" s="297"/>
       <c r="I6" s="206" t="s">
         <v>53</v>
       </c>
@@ -15517,11 +15517,11 @@
       <c r="B7" s="204" t="s">
         <v>56</v>
       </c>
-      <c r="C7" s="285"/>
-      <c r="D7" s="286"/>
-      <c r="E7" s="286"/>
-      <c r="F7" s="286"/>
-      <c r="G7" s="287"/>
+      <c r="C7" s="295"/>
+      <c r="D7" s="296"/>
+      <c r="E7" s="296"/>
+      <c r="F7" s="296"/>
+      <c r="G7" s="297"/>
       <c r="I7" s="209">
         <f>C15</f>
         <v>12</v>
@@ -15536,11 +15536,11 @@
       <c r="B8" s="204" t="s">
         <v>57</v>
       </c>
-      <c r="C8" s="285"/>
-      <c r="D8" s="286"/>
-      <c r="E8" s="286"/>
-      <c r="F8" s="286"/>
-      <c r="G8" s="287"/>
+      <c r="C8" s="295"/>
+      <c r="D8" s="296"/>
+      <c r="E8" s="296"/>
+      <c r="F8" s="296"/>
+      <c r="G8" s="297"/>
       <c r="I8" s="209">
         <f>D15</f>
         <v>5</v>
@@ -15555,11 +15555,11 @@
       <c r="B9" s="204" t="s">
         <v>58</v>
       </c>
-      <c r="C9" s="285"/>
-      <c r="D9" s="286"/>
-      <c r="E9" s="286"/>
-      <c r="F9" s="286"/>
-      <c r="G9" s="287"/>
+      <c r="C9" s="295"/>
+      <c r="D9" s="296"/>
+      <c r="E9" s="296"/>
+      <c r="F9" s="296"/>
+      <c r="G9" s="297"/>
       <c r="I9" s="209">
         <f>E15</f>
         <v>0</v>
@@ -15586,11 +15586,11 @@
       <c r="B10" s="204" t="s">
         <v>63</v>
       </c>
-      <c r="C10" s="285"/>
-      <c r="D10" s="286"/>
-      <c r="E10" s="286"/>
-      <c r="F10" s="286"/>
-      <c r="G10" s="287"/>
+      <c r="C10" s="295"/>
+      <c r="D10" s="296"/>
+      <c r="E10" s="296"/>
+      <c r="F10" s="296"/>
+      <c r="G10" s="297"/>
       <c r="I10" s="209">
         <f>F15</f>
         <v>0</v>
@@ -15606,22 +15606,22 @@
       <c r="P10" s="120"/>
     </row>
     <row r="11" spans="1:26" ht="15.75" customHeight="1">
-      <c r="B11" s="296" t="s">
+      <c r="B11" s="298" t="s">
         <v>64</v>
       </c>
-      <c r="C11" s="297"/>
-      <c r="D11" s="297"/>
-      <c r="E11" s="297"/>
-      <c r="F11" s="297"/>
-      <c r="G11" s="298"/>
+      <c r="C11" s="299"/>
+      <c r="D11" s="299"/>
+      <c r="E11" s="299"/>
+      <c r="F11" s="299"/>
+      <c r="G11" s="300"/>
     </row>
     <row r="12" spans="1:26" ht="15.75" customHeight="1">
-      <c r="B12" s="293"/>
-      <c r="C12" s="294"/>
-      <c r="D12" s="294"/>
-      <c r="E12" s="294"/>
-      <c r="F12" s="294"/>
-      <c r="G12" s="295"/>
+      <c r="B12" s="292"/>
+      <c r="C12" s="293"/>
+      <c r="D12" s="293"/>
+      <c r="E12" s="293"/>
+      <c r="F12" s="293"/>
+      <c r="G12" s="294"/>
     </row>
     <row r="13" spans="1:26" ht="15.75" customHeight="1">
       <c r="B13" s="214" t="s">
@@ -15755,21 +15755,21 @@
       <c r="R17" s="217"/>
     </row>
     <row r="18" spans="2:18" ht="15.75" customHeight="1">
-      <c r="B18" s="299" t="s">
+      <c r="B18" s="301" t="s">
         <v>69</v>
       </c>
-      <c r="C18" s="259"/>
-      <c r="D18" s="259"/>
-      <c r="E18" s="259"/>
-      <c r="F18" s="259"/>
-      <c r="G18" s="251"/>
+      <c r="C18" s="279"/>
+      <c r="D18" s="279"/>
+      <c r="E18" s="279"/>
+      <c r="F18" s="279"/>
+      <c r="G18" s="273"/>
     </row>
     <row r="19" spans="2:18" ht="15.75" customHeight="1">
-      <c r="B19" s="300" t="s">
+      <c r="B19" s="302" t="s">
         <v>70</v>
       </c>
-      <c r="C19" s="259"/>
-      <c r="D19" s="251"/>
+      <c r="C19" s="279"/>
+      <c r="D19" s="273"/>
       <c r="E19" s="232"/>
       <c r="F19" s="232" t="s">
         <v>71</v>
@@ -15779,11 +15779,11 @@
       </c>
     </row>
     <row r="20" spans="2:18" ht="15.75" customHeight="1">
-      <c r="B20" s="301" t="s">
+      <c r="B20" s="303" t="s">
         <v>73</v>
       </c>
-      <c r="C20" s="259"/>
-      <c r="D20" s="251"/>
+      <c r="C20" s="279"/>
+      <c r="D20" s="273"/>
       <c r="E20" s="233"/>
       <c r="F20" s="233" t="s">
         <v>74</v>
@@ -15793,11 +15793,11 @@
       </c>
     </row>
     <row r="21" spans="2:18" ht="15.75" customHeight="1">
-      <c r="B21" s="301" t="s">
+      <c r="B21" s="303" t="s">
         <v>75</v>
       </c>
-      <c r="C21" s="259"/>
-      <c r="D21" s="251"/>
+      <c r="C21" s="279"/>
+      <c r="D21" s="273"/>
       <c r="E21" s="233"/>
       <c r="F21" s="233" t="s">
         <v>74</v>
@@ -15808,306 +15808,306 @@
     </row>
     <row r="22" spans="2:18" ht="15.75" customHeight="1"/>
     <row r="23" spans="2:18" ht="15.75" customHeight="1">
-      <c r="B23" s="304"/>
-      <c r="C23" s="302" t="s">
+      <c r="B23" s="306"/>
+      <c r="C23" s="304" t="s">
         <v>76</v>
       </c>
-      <c r="D23" s="303" t="s">
+      <c r="D23" s="305" t="s">
         <v>77</v>
       </c>
-      <c r="E23" s="289"/>
-      <c r="F23" s="289"/>
-      <c r="G23" s="290"/>
+      <c r="E23" s="288"/>
+      <c r="F23" s="288"/>
+      <c r="G23" s="289"/>
     </row>
     <row r="24" spans="2:18" ht="15.75" customHeight="1">
-      <c r="B24" s="253"/>
-      <c r="C24" s="253"/>
-      <c r="D24" s="291"/>
-      <c r="E24" s="276"/>
-      <c r="F24" s="276"/>
-      <c r="G24" s="292"/>
+      <c r="B24" s="262"/>
+      <c r="C24" s="262"/>
+      <c r="D24" s="290"/>
+      <c r="E24" s="257"/>
+      <c r="F24" s="257"/>
+      <c r="G24" s="291"/>
     </row>
     <row r="25" spans="2:18" ht="15.75" customHeight="1">
-      <c r="B25" s="253"/>
-      <c r="C25" s="253"/>
-      <c r="D25" s="291"/>
-      <c r="E25" s="276"/>
-      <c r="F25" s="276"/>
-      <c r="G25" s="292"/>
+      <c r="B25" s="262"/>
+      <c r="C25" s="262"/>
+      <c r="D25" s="290"/>
+      <c r="E25" s="257"/>
+      <c r="F25" s="257"/>
+      <c r="G25" s="291"/>
     </row>
     <row r="26" spans="2:18" ht="15.75" customHeight="1">
-      <c r="B26" s="254"/>
-      <c r="C26" s="254"/>
-      <c r="D26" s="293"/>
-      <c r="E26" s="294"/>
-      <c r="F26" s="294"/>
-      <c r="G26" s="295"/>
+      <c r="B26" s="263"/>
+      <c r="C26" s="263"/>
+      <c r="D26" s="292"/>
+      <c r="E26" s="293"/>
+      <c r="F26" s="293"/>
+      <c r="G26" s="294"/>
     </row>
     <row r="27" spans="2:18" ht="15.75" customHeight="1">
-      <c r="B27" s="305" t="s">
+      <c r="B27" s="285" t="s">
         <v>78</v>
       </c>
-      <c r="C27" s="306" t="s">
+      <c r="C27" s="284" t="s">
         <v>79</v>
       </c>
-      <c r="D27" s="288" t="s">
+      <c r="D27" s="287" t="s">
         <v>80</v>
       </c>
-      <c r="E27" s="289"/>
-      <c r="F27" s="289"/>
-      <c r="G27" s="290"/>
+      <c r="E27" s="288"/>
+      <c r="F27" s="288"/>
+      <c r="G27" s="289"/>
     </row>
     <row r="28" spans="2:18" ht="15.75" customHeight="1">
-      <c r="B28" s="253"/>
-      <c r="C28" s="253"/>
-      <c r="D28" s="291"/>
-      <c r="E28" s="276"/>
-      <c r="F28" s="276"/>
-      <c r="G28" s="292"/>
+      <c r="B28" s="262"/>
+      <c r="C28" s="262"/>
+      <c r="D28" s="290"/>
+      <c r="E28" s="257"/>
+      <c r="F28" s="257"/>
+      <c r="G28" s="291"/>
     </row>
     <row r="29" spans="2:18" ht="15.75" customHeight="1">
-      <c r="B29" s="253"/>
-      <c r="C29" s="253"/>
-      <c r="D29" s="291"/>
-      <c r="E29" s="276"/>
-      <c r="F29" s="276"/>
-      <c r="G29" s="292"/>
+      <c r="B29" s="262"/>
+      <c r="C29" s="262"/>
+      <c r="D29" s="290"/>
+      <c r="E29" s="257"/>
+      <c r="F29" s="257"/>
+      <c r="G29" s="291"/>
     </row>
     <row r="30" spans="2:18" ht="15.75" customHeight="1">
-      <c r="B30" s="254"/>
-      <c r="C30" s="254"/>
-      <c r="D30" s="293"/>
-      <c r="E30" s="294"/>
-      <c r="F30" s="294"/>
-      <c r="G30" s="295"/>
+      <c r="B30" s="263"/>
+      <c r="C30" s="263"/>
+      <c r="D30" s="292"/>
+      <c r="E30" s="293"/>
+      <c r="F30" s="293"/>
+      <c r="G30" s="294"/>
     </row>
     <row r="31" spans="2:18" ht="15.75" customHeight="1">
-      <c r="B31" s="305" t="s">
+      <c r="B31" s="285" t="s">
         <v>78</v>
       </c>
-      <c r="C31" s="306" t="s">
+      <c r="C31" s="284" t="s">
         <v>81</v>
       </c>
-      <c r="D31" s="288" t="s">
+      <c r="D31" s="287" t="s">
         <v>82</v>
       </c>
-      <c r="E31" s="289"/>
-      <c r="F31" s="289"/>
-      <c r="G31" s="290"/>
+      <c r="E31" s="288"/>
+      <c r="F31" s="288"/>
+      <c r="G31" s="289"/>
     </row>
     <row r="32" spans="2:18" ht="15.75" customHeight="1">
-      <c r="B32" s="253"/>
-      <c r="C32" s="253"/>
-      <c r="D32" s="291"/>
-      <c r="E32" s="276"/>
-      <c r="F32" s="276"/>
-      <c r="G32" s="292"/>
+      <c r="B32" s="262"/>
+      <c r="C32" s="262"/>
+      <c r="D32" s="290"/>
+      <c r="E32" s="257"/>
+      <c r="F32" s="257"/>
+      <c r="G32" s="291"/>
     </row>
     <row r="33" spans="2:7" ht="15.75" customHeight="1">
-      <c r="B33" s="253"/>
-      <c r="C33" s="253"/>
-      <c r="D33" s="291"/>
-      <c r="E33" s="276"/>
-      <c r="F33" s="276"/>
-      <c r="G33" s="292"/>
+      <c r="B33" s="262"/>
+      <c r="C33" s="262"/>
+      <c r="D33" s="290"/>
+      <c r="E33" s="257"/>
+      <c r="F33" s="257"/>
+      <c r="G33" s="291"/>
     </row>
     <row r="34" spans="2:7" ht="15.75" customHeight="1">
-      <c r="B34" s="254"/>
-      <c r="C34" s="254"/>
-      <c r="D34" s="293"/>
-      <c r="E34" s="294"/>
-      <c r="F34" s="294"/>
-      <c r="G34" s="295"/>
+      <c r="B34" s="263"/>
+      <c r="C34" s="263"/>
+      <c r="D34" s="292"/>
+      <c r="E34" s="293"/>
+      <c r="F34" s="293"/>
+      <c r="G34" s="294"/>
     </row>
     <row r="35" spans="2:7" ht="15.75" customHeight="1">
-      <c r="B35" s="305" t="s">
+      <c r="B35" s="285" t="s">
         <v>78</v>
       </c>
-      <c r="C35" s="306" t="s">
+      <c r="C35" s="284" t="s">
         <v>83</v>
       </c>
-      <c r="D35" s="288" t="s">
+      <c r="D35" s="287" t="s">
         <v>84</v>
       </c>
-      <c r="E35" s="289"/>
-      <c r="F35" s="289"/>
-      <c r="G35" s="290"/>
+      <c r="E35" s="288"/>
+      <c r="F35" s="288"/>
+      <c r="G35" s="289"/>
     </row>
     <row r="36" spans="2:7" ht="15.75" customHeight="1">
-      <c r="B36" s="253"/>
-      <c r="C36" s="253"/>
-      <c r="D36" s="291"/>
-      <c r="E36" s="276"/>
-      <c r="F36" s="276"/>
-      <c r="G36" s="292"/>
+      <c r="B36" s="262"/>
+      <c r="C36" s="262"/>
+      <c r="D36" s="290"/>
+      <c r="E36" s="257"/>
+      <c r="F36" s="257"/>
+      <c r="G36" s="291"/>
     </row>
     <row r="37" spans="2:7" ht="15.75" customHeight="1">
-      <c r="B37" s="253"/>
-      <c r="C37" s="253"/>
-      <c r="D37" s="291"/>
-      <c r="E37" s="276"/>
-      <c r="F37" s="276"/>
-      <c r="G37" s="292"/>
+      <c r="B37" s="262"/>
+      <c r="C37" s="262"/>
+      <c r="D37" s="290"/>
+      <c r="E37" s="257"/>
+      <c r="F37" s="257"/>
+      <c r="G37" s="291"/>
     </row>
     <row r="38" spans="2:7" ht="15.75" customHeight="1">
-      <c r="B38" s="254"/>
-      <c r="C38" s="254"/>
-      <c r="D38" s="293"/>
-      <c r="E38" s="294"/>
-      <c r="F38" s="294"/>
-      <c r="G38" s="295"/>
+      <c r="B38" s="263"/>
+      <c r="C38" s="263"/>
+      <c r="D38" s="292"/>
+      <c r="E38" s="293"/>
+      <c r="F38" s="293"/>
+      <c r="G38" s="294"/>
     </row>
     <row r="39" spans="2:7" ht="15.75" customHeight="1">
-      <c r="B39" s="305" t="s">
+      <c r="B39" s="285" t="s">
         <v>78</v>
       </c>
-      <c r="C39" s="306" t="s">
+      <c r="C39" s="284" t="s">
         <v>45</v>
       </c>
-      <c r="D39" s="288" t="s">
+      <c r="D39" s="287" t="s">
         <v>85</v>
       </c>
-      <c r="E39" s="289"/>
-      <c r="F39" s="289"/>
-      <c r="G39" s="290"/>
+      <c r="E39" s="288"/>
+      <c r="F39" s="288"/>
+      <c r="G39" s="289"/>
     </row>
     <row r="40" spans="2:7" ht="15.75" customHeight="1">
-      <c r="B40" s="253"/>
-      <c r="C40" s="253"/>
-      <c r="D40" s="291"/>
-      <c r="E40" s="276"/>
-      <c r="F40" s="276"/>
-      <c r="G40" s="292"/>
+      <c r="B40" s="262"/>
+      <c r="C40" s="262"/>
+      <c r="D40" s="290"/>
+      <c r="E40" s="257"/>
+      <c r="F40" s="257"/>
+      <c r="G40" s="291"/>
     </row>
     <row r="41" spans="2:7" ht="15.75" customHeight="1">
-      <c r="B41" s="253"/>
-      <c r="C41" s="253"/>
-      <c r="D41" s="291"/>
-      <c r="E41" s="276"/>
-      <c r="F41" s="276"/>
-      <c r="G41" s="292"/>
+      <c r="B41" s="262"/>
+      <c r="C41" s="262"/>
+      <c r="D41" s="290"/>
+      <c r="E41" s="257"/>
+      <c r="F41" s="257"/>
+      <c r="G41" s="291"/>
     </row>
     <row r="42" spans="2:7" ht="15.75" customHeight="1">
-      <c r="B42" s="254"/>
-      <c r="C42" s="254"/>
-      <c r="D42" s="293"/>
-      <c r="E42" s="294"/>
-      <c r="F42" s="294"/>
-      <c r="G42" s="295"/>
+      <c r="B42" s="263"/>
+      <c r="C42" s="263"/>
+      <c r="D42" s="292"/>
+      <c r="E42" s="293"/>
+      <c r="F42" s="293"/>
+      <c r="G42" s="294"/>
     </row>
     <row r="43" spans="2:7" ht="15.75" customHeight="1">
-      <c r="B43" s="305" t="s">
+      <c r="B43" s="285" t="s">
         <v>78</v>
       </c>
-      <c r="C43" s="307" t="s">
+      <c r="C43" s="286" t="s">
         <v>86</v>
       </c>
-      <c r="D43" s="288" t="s">
+      <c r="D43" s="287" t="s">
         <v>87</v>
       </c>
-      <c r="E43" s="289"/>
-      <c r="F43" s="289"/>
-      <c r="G43" s="290"/>
+      <c r="E43" s="288"/>
+      <c r="F43" s="288"/>
+      <c r="G43" s="289"/>
     </row>
     <row r="44" spans="2:7" ht="15.75" customHeight="1">
-      <c r="B44" s="253"/>
-      <c r="C44" s="253"/>
-      <c r="D44" s="291"/>
-      <c r="E44" s="276"/>
-      <c r="F44" s="276"/>
-      <c r="G44" s="292"/>
+      <c r="B44" s="262"/>
+      <c r="C44" s="262"/>
+      <c r="D44" s="290"/>
+      <c r="E44" s="257"/>
+      <c r="F44" s="257"/>
+      <c r="G44" s="291"/>
     </row>
     <row r="45" spans="2:7" ht="15.75" customHeight="1">
-      <c r="B45" s="253"/>
-      <c r="C45" s="253"/>
-      <c r="D45" s="291"/>
-      <c r="E45" s="276"/>
-      <c r="F45" s="276"/>
-      <c r="G45" s="292"/>
+      <c r="B45" s="262"/>
+      <c r="C45" s="262"/>
+      <c r="D45" s="290"/>
+      <c r="E45" s="257"/>
+      <c r="F45" s="257"/>
+      <c r="G45" s="291"/>
     </row>
     <row r="46" spans="2:7" ht="15.75" customHeight="1">
-      <c r="B46" s="254"/>
-      <c r="C46" s="254"/>
-      <c r="D46" s="293"/>
-      <c r="E46" s="294"/>
-      <c r="F46" s="294"/>
-      <c r="G46" s="295"/>
+      <c r="B46" s="263"/>
+      <c r="C46" s="263"/>
+      <c r="D46" s="292"/>
+      <c r="E46" s="293"/>
+      <c r="F46" s="293"/>
+      <c r="G46" s="294"/>
     </row>
     <row r="47" spans="2:7" ht="15.75" customHeight="1">
-      <c r="B47" s="305" t="s">
+      <c r="B47" s="285" t="s">
         <v>78</v>
       </c>
-      <c r="C47" s="307" t="s">
+      <c r="C47" s="286" t="s">
         <v>88</v>
       </c>
-      <c r="D47" s="288" t="s">
+      <c r="D47" s="287" t="s">
         <v>89</v>
       </c>
-      <c r="E47" s="289"/>
-      <c r="F47" s="289"/>
-      <c r="G47" s="290"/>
+      <c r="E47" s="288"/>
+      <c r="F47" s="288"/>
+      <c r="G47" s="289"/>
     </row>
     <row r="48" spans="2:7" ht="15.75" customHeight="1">
-      <c r="B48" s="253"/>
-      <c r="C48" s="253"/>
-      <c r="D48" s="291"/>
-      <c r="E48" s="276"/>
-      <c r="F48" s="276"/>
-      <c r="G48" s="292"/>
+      <c r="B48" s="262"/>
+      <c r="C48" s="262"/>
+      <c r="D48" s="290"/>
+      <c r="E48" s="257"/>
+      <c r="F48" s="257"/>
+      <c r="G48" s="291"/>
     </row>
     <row r="49" spans="2:7" ht="15.75" customHeight="1">
-      <c r="B49" s="253"/>
-      <c r="C49" s="253"/>
-      <c r="D49" s="291"/>
-      <c r="E49" s="276"/>
-      <c r="F49" s="276"/>
-      <c r="G49" s="292"/>
+      <c r="B49" s="262"/>
+      <c r="C49" s="262"/>
+      <c r="D49" s="290"/>
+      <c r="E49" s="257"/>
+      <c r="F49" s="257"/>
+      <c r="G49" s="291"/>
     </row>
     <row r="50" spans="2:7" ht="33.75" customHeight="1">
-      <c r="B50" s="254"/>
-      <c r="C50" s="254"/>
-      <c r="D50" s="293"/>
-      <c r="E50" s="294"/>
-      <c r="F50" s="294"/>
-      <c r="G50" s="295"/>
+      <c r="B50" s="263"/>
+      <c r="C50" s="263"/>
+      <c r="D50" s="292"/>
+      <c r="E50" s="293"/>
+      <c r="F50" s="293"/>
+      <c r="G50" s="294"/>
     </row>
     <row r="51" spans="2:7" ht="15.75" customHeight="1">
-      <c r="B51" s="305" t="s">
+      <c r="B51" s="285" t="s">
         <v>78</v>
       </c>
-      <c r="C51" s="307" t="s">
+      <c r="C51" s="286" t="s">
         <v>90</v>
       </c>
-      <c r="D51" s="288" t="s">
+      <c r="D51" s="287" t="s">
         <v>91</v>
       </c>
-      <c r="E51" s="289"/>
-      <c r="F51" s="289"/>
-      <c r="G51" s="290"/>
+      <c r="E51" s="288"/>
+      <c r="F51" s="288"/>
+      <c r="G51" s="289"/>
     </row>
     <row r="52" spans="2:7" ht="15.75" customHeight="1">
-      <c r="B52" s="253"/>
-      <c r="C52" s="253"/>
-      <c r="D52" s="291"/>
-      <c r="E52" s="276"/>
-      <c r="F52" s="276"/>
-      <c r="G52" s="292"/>
+      <c r="B52" s="262"/>
+      <c r="C52" s="262"/>
+      <c r="D52" s="290"/>
+      <c r="E52" s="257"/>
+      <c r="F52" s="257"/>
+      <c r="G52" s="291"/>
     </row>
     <row r="53" spans="2:7" ht="15.75" customHeight="1">
-      <c r="B53" s="253"/>
-      <c r="C53" s="253"/>
-      <c r="D53" s="291"/>
-      <c r="E53" s="276"/>
-      <c r="F53" s="276"/>
-      <c r="G53" s="292"/>
+      <c r="B53" s="262"/>
+      <c r="C53" s="262"/>
+      <c r="D53" s="290"/>
+      <c r="E53" s="257"/>
+      <c r="F53" s="257"/>
+      <c r="G53" s="291"/>
     </row>
     <row r="54" spans="2:7" ht="39" customHeight="1">
-      <c r="B54" s="254"/>
-      <c r="C54" s="254"/>
-      <c r="D54" s="293"/>
-      <c r="E54" s="294"/>
-      <c r="F54" s="294"/>
-      <c r="G54" s="295"/>
+      <c r="B54" s="263"/>
+      <c r="C54" s="263"/>
+      <c r="D54" s="292"/>
+      <c r="E54" s="293"/>
+      <c r="F54" s="293"/>
+      <c r="G54" s="294"/>
     </row>
     <row r="55" spans="2:7" ht="15.75" customHeight="1"/>
     <row r="56" spans="2:7" ht="15.75" customHeight="1"/>
@@ -17057,21 +17057,11 @@
     <row r="1000" ht="15.75" customHeight="1"/>
   </sheetData>
   <mergeCells count="36">
-    <mergeCell ref="C31:C34"/>
-    <mergeCell ref="B35:B38"/>
-    <mergeCell ref="C35:C38"/>
-    <mergeCell ref="B47:B50"/>
-    <mergeCell ref="C47:C50"/>
-    <mergeCell ref="D47:G50"/>
-    <mergeCell ref="B51:B54"/>
-    <mergeCell ref="C51:C54"/>
-    <mergeCell ref="D51:G54"/>
-    <mergeCell ref="B39:B42"/>
-    <mergeCell ref="C39:C42"/>
-    <mergeCell ref="D39:G42"/>
-    <mergeCell ref="B43:B46"/>
-    <mergeCell ref="C43:C46"/>
-    <mergeCell ref="D43:G46"/>
+    <mergeCell ref="B4:G4"/>
+    <mergeCell ref="C5:G5"/>
+    <mergeCell ref="C6:G6"/>
+    <mergeCell ref="C7:G7"/>
+    <mergeCell ref="C8:G8"/>
     <mergeCell ref="C9:G9"/>
     <mergeCell ref="C10:G10"/>
     <mergeCell ref="D27:G30"/>
@@ -17088,11 +17078,21 @@
     <mergeCell ref="B27:B30"/>
     <mergeCell ref="C27:C30"/>
     <mergeCell ref="B31:B34"/>
-    <mergeCell ref="B4:G4"/>
-    <mergeCell ref="C5:G5"/>
-    <mergeCell ref="C6:G6"/>
-    <mergeCell ref="C7:G7"/>
-    <mergeCell ref="C8:G8"/>
+    <mergeCell ref="D47:G50"/>
+    <mergeCell ref="B51:B54"/>
+    <mergeCell ref="C51:C54"/>
+    <mergeCell ref="D51:G54"/>
+    <mergeCell ref="B39:B42"/>
+    <mergeCell ref="C39:C42"/>
+    <mergeCell ref="D39:G42"/>
+    <mergeCell ref="B43:B46"/>
+    <mergeCell ref="C43:C46"/>
+    <mergeCell ref="D43:G46"/>
+    <mergeCell ref="C31:C34"/>
+    <mergeCell ref="B35:B38"/>
+    <mergeCell ref="C35:C38"/>
+    <mergeCell ref="B47:B50"/>
+    <mergeCell ref="C47:C50"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0" bottom="0.75" header="0" footer="0"/>
   <pageSetup paperSize="9" orientation="landscape"/>
@@ -17122,39 +17122,39 @@
       <c r="D3" s="308" t="s">
         <v>92</v>
       </c>
-      <c r="E3" s="290"/>
+      <c r="E3" s="289"/>
     </row>
     <row r="4" spans="1:26" ht="13.5" customHeight="1">
-      <c r="D4" s="291"/>
-      <c r="E4" s="292"/>
+      <c r="D4" s="290"/>
+      <c r="E4" s="291"/>
     </row>
     <row r="5" spans="1:26" ht="13.5" customHeight="1">
-      <c r="D5" s="291"/>
-      <c r="E5" s="292"/>
+      <c r="D5" s="290"/>
+      <c r="E5" s="291"/>
     </row>
     <row r="6" spans="1:26" ht="13.5" customHeight="1">
-      <c r="D6" s="293"/>
-      <c r="E6" s="295"/>
+      <c r="D6" s="292"/>
+      <c r="E6" s="294"/>
     </row>
     <row r="7" spans="1:26" ht="15" customHeight="1">
       <c r="D7" s="309" t="s">
         <v>149</v>
       </c>
-      <c r="E7" s="298"/>
+      <c r="E7" s="300"/>
     </row>
     <row r="8" spans="1:26" ht="18.75" customHeight="1">
-      <c r="D8" s="291"/>
-      <c r="E8" s="292"/>
+      <c r="D8" s="290"/>
+      <c r="E8" s="291"/>
     </row>
     <row r="9" spans="1:26" ht="13.5" customHeight="1">
       <c r="D9" s="310" t="s">
         <v>145</v>
       </c>
-      <c r="E9" s="298"/>
+      <c r="E9" s="300"/>
     </row>
     <row r="10" spans="1:26" ht="21" customHeight="1">
-      <c r="D10" s="291"/>
-      <c r="E10" s="292"/>
+      <c r="D10" s="290"/>
+      <c r="E10" s="291"/>
       <c r="I10" s="234"/>
       <c r="J10" s="234"/>
       <c r="K10" s="234"/>
